--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject26.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject26.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -152,7 +152,7 @@
         <v>0</v>
       </c>
       <c r="I1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1" s="0">
         <v>0</v>
@@ -176,7 +176,7 @@
         <v>0</v>
       </c>
       <c r="Q1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R1" s="0">
         <v>0</v>
@@ -200,10 +200,10 @@
         <v>0</v>
       </c>
       <c r="Y1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA1" s="0">
         <v>0</v>
@@ -272,7 +272,7 @@
         <v>0</v>
       </c>
       <c r="AW1" s="0">
-        <v>0</v>
+        <v>0.6420919103590903</v>
       </c>
       <c r="AX1" s="0">
         <v>0</v>
@@ -287,7 +287,7 @@
         <v>0</v>
       </c>
       <c r="BB1" s="0">
-        <v>0</v>
+        <v>0.61278728278640082</v>
       </c>
       <c r="BC1" s="0">
         <v>0</v>
@@ -308,10 +308,10 @@
         <v>0</v>
       </c>
       <c r="BI1" s="0">
-        <v>0</v>
+        <v>0.76883785900686352</v>
       </c>
       <c r="BJ1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK1" s="0">
         <v>0</v>
@@ -329,7 +329,7 @@
         <v>0</v>
       </c>
       <c r="BP1" s="0">
-        <v>0</v>
+        <v>0.50859671214957236</v>
       </c>
     </row>
     <row r="2">
@@ -343,7 +343,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="0">
-        <v>1</v>
+        <v>0.64243878227429363</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -391,7 +391,7 @@
         <v>0</v>
       </c>
       <c r="T2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2" s="0">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="AK2" s="0">
-        <v>0</v>
+        <v>0.72753945484648819</v>
       </c>
       <c r="AL2" s="0">
         <v>0</v>
@@ -466,13 +466,13 @@
         <v>0</v>
       </c>
       <c r="AS2" s="0">
-        <v>0</v>
+        <v>0.68197283347382431</v>
       </c>
       <c r="AT2" s="0">
         <v>0</v>
       </c>
       <c r="AU2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV2" s="0">
         <v>0</v>
@@ -508,7 +508,7 @@
         <v>0</v>
       </c>
       <c r="BG2" s="0">
-        <v>0</v>
+        <v>0.75704380933583248</v>
       </c>
       <c r="BH2" s="0">
         <v>0</v>
@@ -523,7 +523,7 @@
         <v>0</v>
       </c>
       <c r="BL2" s="0">
-        <v>0</v>
+        <v>0.90629266200181757</v>
       </c>
       <c r="BM2" s="0">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="0">
         <v>0</v>
@@ -612,13 +612,13 @@
         <v>0</v>
       </c>
       <c r="Y3" s="0">
-        <v>0</v>
+        <v>0.98827814049834695</v>
       </c>
       <c r="Z3" s="0">
         <v>0</v>
       </c>
       <c r="AA3" s="0">
-        <v>0</v>
+        <v>0.95676311399250191</v>
       </c>
       <c r="AB3" s="0">
         <v>0</v>
@@ -654,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="AM3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN3" s="0">
         <v>0</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="AU3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV3" s="0">
         <v>0</v>
@@ -687,7 +687,7 @@
         <v>0</v>
       </c>
       <c r="AX3" s="0">
-        <v>0</v>
+        <v>0.67893814328889768</v>
       </c>
       <c r="AY3" s="0">
         <v>0</v>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="BB3" s="0">
-        <v>0</v>
+        <v>0.58804587552326049</v>
       </c>
       <c r="BC3" s="0">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="BK3" s="0">
-        <v>0</v>
+        <v>0.5752196747711309</v>
       </c>
       <c r="BL3" s="0">
         <v>0</v>
@@ -735,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="BN3" s="0">
-        <v>0</v>
+        <v>0.70841508452175717</v>
       </c>
       <c r="BO3" s="0">
         <v>0</v>
@@ -749,10 +749,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>1</v>
+        <v>0.63537838367930322</v>
       </c>
       <c r="C4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="0">
-        <v>0</v>
+        <v>0.69921353163424682</v>
       </c>
       <c r="P4" s="0">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="R4" s="0">
-        <v>0</v>
+        <v>0.99124050818327125</v>
       </c>
       <c r="S4" s="0">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="AA4" s="0">
-        <v>1</v>
+        <v>0.9563617453344726</v>
       </c>
       <c r="AB4" s="0">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="AL4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM4" s="0">
         <v>0</v>
@@ -1030,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="AA5" s="0">
-        <v>0</v>
+        <v>0.78496263303642033</v>
       </c>
       <c r="AB5" s="0">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="AM5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN5" s="0">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="BA5" s="0">
-        <v>1</v>
+        <v>0.61493076884793663</v>
       </c>
       <c r="BB5" s="0">
         <v>0</v>
@@ -1120,13 +1120,13 @@
         <v>0</v>
       </c>
       <c r="BE5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF5" s="0">
         <v>0</v>
       </c>
       <c r="BG5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH5" s="0">
         <v>0</v>
@@ -1179,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>1</v>
+        <v>0.61661260248735084</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="N6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" s="0">
         <v>0</v>
       </c>
       <c r="P6" s="0">
-        <v>0</v>
+        <v>0.61966163156690657</v>
       </c>
       <c r="Q6" s="0">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="AI6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="0">
         <v>0</v>
@@ -1281,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="AP6" s="0">
-        <v>0</v>
+        <v>0.80915034199157043</v>
       </c>
       <c r="AQ6" s="0">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="BA6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB6" s="0">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0</v>
+        <v>0.78265243085276437</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="R7" s="0">
-        <v>0</v>
+        <v>0.77676947319056056</v>
       </c>
       <c r="S7" s="0">
         <v>0</v>
@@ -1454,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="AE7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF7" s="0">
         <v>0</v>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="AK7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL7" s="0">
         <v>0</v>
@@ -1490,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="AQ7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR7" s="0">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="AV7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW7" s="0">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="BG7" s="0">
-        <v>0</v>
+        <v>0.62107229935074892</v>
       </c>
       <c r="BH7" s="0">
         <v>0</v>
@@ -1585,10 +1585,10 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>1</v>
+        <v>0.69247908964704641</v>
       </c>
       <c r="G8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="Q8" s="0">
-        <v>0</v>
+        <v>0.60307648233710298</v>
       </c>
       <c r="R8" s="0">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="AA8" s="0">
-        <v>0</v>
+        <v>0.89701277270397783</v>
       </c>
       <c r="AB8" s="0">
         <v>0</v>
@@ -1687,13 +1687,13 @@
         <v>0</v>
       </c>
       <c r="AN8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="0">
         <v>0</v>
       </c>
       <c r="AP8" s="0">
-        <v>0</v>
+        <v>0.93864992630987332</v>
       </c>
       <c r="AQ8" s="0">
         <v>0</v>
@@ -1735,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="BD8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE8" s="0">
         <v>0</v>
@@ -1759,7 +1759,7 @@
         <v>0</v>
       </c>
       <c r="BL8" s="0">
-        <v>0</v>
+        <v>0.98894100599759271</v>
       </c>
       <c r="BM8" s="0">
         <v>0</v>
@@ -1776,7 +1776,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" s="0">
         <v>0</v>
@@ -1794,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>0</v>
+        <v>0.82614197959063351</v>
       </c>
       <c r="H9" s="0">
         <v>0</v>
@@ -1848,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="Y9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="0">
         <v>0</v>
@@ -1866,13 +1866,13 @@
         <v>0</v>
       </c>
       <c r="AE9" s="0">
-        <v>0</v>
+        <v>0.99641414074189782</v>
       </c>
       <c r="AF9" s="0">
         <v>0</v>
       </c>
       <c r="AG9" s="0">
-        <v>0</v>
+        <v>0.77535356548840073</v>
       </c>
       <c r="AH9" s="0">
         <v>0</v>
@@ -1896,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="AO9" s="0">
-        <v>0</v>
+        <v>0.58017636755472402</v>
       </c>
       <c r="AP9" s="0">
         <v>0</v>
@@ -1923,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="AX9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="0">
         <v>0</v>
@@ -2012,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>1</v>
+        <v>0.83048781503696067</v>
       </c>
       <c r="L10" s="0">
         <v>0</v>
@@ -2021,13 +2021,13 @@
         <v>0</v>
       </c>
       <c r="N10" s="0">
-        <v>0</v>
+        <v>0.53190224253608331</v>
       </c>
       <c r="O10" s="0">
         <v>0</v>
       </c>
       <c r="P10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="0">
         <v>0</v>
@@ -2150,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="BE10" s="0">
-        <v>1</v>
+        <v>0.83250885266459695</v>
       </c>
       <c r="BF10" s="0">
         <v>0</v>
@@ -2171,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="BL10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM10" s="0">
         <v>0</v>
@@ -2215,7 +2215,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="0">
-        <v>1</v>
+        <v>0.93459226183390798</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2269,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="AB11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC11" s="0">
         <v>0</v>
@@ -2314,13 +2314,13 @@
         <v>0</v>
       </c>
       <c r="AQ11" s="0">
-        <v>0</v>
+        <v>0.625891958838662</v>
       </c>
       <c r="AR11" s="0">
         <v>0</v>
       </c>
       <c r="AS11" s="0">
-        <v>0</v>
+        <v>0.71843609649376905</v>
       </c>
       <c r="AT11" s="0">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="AX11" s="0">
-        <v>0</v>
+        <v>0.8580495581362283</v>
       </c>
       <c r="AY11" s="0">
         <v>0</v>
@@ -2344,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="BA11" s="0">
-        <v>0</v>
+        <v>0.9237682868317284</v>
       </c>
       <c r="BB11" s="0">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" s="0">
         <v>0</v>
@@ -2439,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="0">
-        <v>0</v>
+        <v>0.83988054207341967</v>
       </c>
       <c r="Q12" s="0">
         <v>0</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="Y12" s="0">
-        <v>0</v>
+        <v>0.74701662664733992</v>
       </c>
       <c r="Z12" s="0">
         <v>0</v>
@@ -2487,10 +2487,10 @@
         <v>0</v>
       </c>
       <c r="AF12" s="0">
-        <v>0</v>
+        <v>0.79409793231113834</v>
       </c>
       <c r="AG12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH12" s="0">
         <v>0</v>
@@ -2511,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="AN12" s="0">
-        <v>0</v>
+        <v>0.75072792625412654</v>
       </c>
       <c r="AO12" s="0">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="AV12" s="0">
-        <v>0</v>
+        <v>0.72662239230744918</v>
       </c>
       <c r="AW12" s="0">
         <v>0</v>
@@ -2630,10 +2630,10 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
@@ -2651,25 +2651,25 @@
         <v>0</v>
       </c>
       <c r="R13" s="0">
-        <v>0</v>
+        <v>0.86940033184227816</v>
       </c>
       <c r="S13" s="0">
         <v>0</v>
       </c>
       <c r="T13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U13" s="0">
         <v>0</v>
       </c>
       <c r="V13" s="0">
-        <v>0</v>
+        <v>0.934885263985614</v>
       </c>
       <c r="W13" s="0">
         <v>0</v>
       </c>
       <c r="X13" s="0">
-        <v>0</v>
+        <v>0.76597302698463654</v>
       </c>
       <c r="Y13" s="0">
         <v>0</v>
@@ -2699,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="AH13" s="0">
-        <v>0</v>
+        <v>0.515274783610006</v>
       </c>
       <c r="AI13" s="0">
         <v>0</v>
@@ -2729,7 +2729,7 @@
         <v>0</v>
       </c>
       <c r="AR13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS13" s="0">
         <v>0</v>
@@ -2750,7 +2750,7 @@
         <v>0</v>
       </c>
       <c r="AY13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ13" s="0">
         <v>0</v>
@@ -2774,7 +2774,7 @@
         <v>0</v>
       </c>
       <c r="BG13" s="0">
-        <v>0</v>
+        <v>0.79160632050094937</v>
       </c>
       <c r="BH13" s="0">
         <v>0</v>
@@ -2821,7 +2821,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="0">
         <v>0</v>
@@ -2833,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="0">
-        <v>0</v>
+        <v>0.93256332555256061</v>
       </c>
       <c r="K14" s="0">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="0">
         <v>0</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="U14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14" s="0">
         <v>0</v>
@@ -2908,7 +2908,7 @@
         <v>0</v>
       </c>
       <c r="AI14" s="0">
-        <v>0</v>
+        <v>0.81439913200292602</v>
       </c>
       <c r="AJ14" s="0">
         <v>0</v>
@@ -2971,7 +2971,7 @@
         <v>0</v>
       </c>
       <c r="BD14" s="0">
-        <v>1</v>
+        <v>0.67722449560728593</v>
       </c>
       <c r="BE14" s="0">
         <v>0</v>
@@ -2992,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="BK14" s="0">
-        <v>0</v>
+        <v>0.89502085826048572</v>
       </c>
       <c r="BL14" s="0">
         <v>0</v>
@@ -3021,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="0">
-        <v>0</v>
+        <v>0.6181499168686645</v>
       </c>
       <c r="E15" s="0">
         <v>0</v>
@@ -3057,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>0</v>
+        <v>0.96272025594045529</v>
       </c>
       <c r="Q15" s="0">
         <v>0</v>
@@ -3102,13 +3102,13 @@
         <v>0</v>
       </c>
       <c r="AE15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF15" s="0">
         <v>0</v>
       </c>
       <c r="AG15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH15" s="0">
         <v>0</v>
@@ -3132,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="AO15" s="0">
-        <v>0</v>
+        <v>0.87841503401033705</v>
       </c>
       <c r="AP15" s="0">
         <v>0</v>
@@ -3177,10 +3177,10 @@
         <v>0</v>
       </c>
       <c r="BD15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE15" s="0">
-        <v>0</v>
+        <v>0.72585186337741658</v>
       </c>
       <c r="BF15" s="0">
         <v>0</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="BJ15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK15" s="0">
         <v>0</v>
@@ -3233,7 +3233,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="0">
-        <v>0</v>
+        <v>0.99434153047568397</v>
       </c>
       <c r="G16" s="0">
         <v>0</v>
@@ -3245,34 +3245,34 @@
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="0">
         <v>0</v>
       </c>
       <c r="L16" s="0">
-        <v>0</v>
+        <v>0.57066265561865737</v>
       </c>
       <c r="M16" s="0">
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="0">
-        <v>0</v>
+        <v>0.69116569760842828</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" s="0">
         <v>0</v>
       </c>
       <c r="S16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16" s="0">
         <v>0</v>
@@ -3284,7 +3284,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X16" s="0">
         <v>0</v>
@@ -3299,13 +3299,13 @@
         <v>0</v>
       </c>
       <c r="AB16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC16" s="0">
         <v>0</v>
       </c>
       <c r="AD16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="0">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="AH16" s="0">
-        <v>0</v>
+        <v>0.88847447232631716</v>
       </c>
       <c r="AI16" s="0">
         <v>0</v>
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="AL16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM16" s="0">
         <v>0</v>
@@ -3356,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="AU16" s="0">
-        <v>0</v>
+        <v>0.731255128966386</v>
       </c>
       <c r="AV16" s="0">
         <v>0</v>
@@ -3371,13 +3371,13 @@
         <v>0</v>
       </c>
       <c r="AZ16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA16" s="0">
         <v>0</v>
       </c>
       <c r="BB16" s="0">
-        <v>0</v>
+        <v>0.57729591727055318</v>
       </c>
       <c r="BC16" s="0">
         <v>0</v>
@@ -3424,7 +3424,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17" s="0">
         <v>0</v>
@@ -3445,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="0">
-        <v>0</v>
+        <v>0.93732748956306389</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="P17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="0">
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" s="0">
         <v>0</v>
@@ -3544,7 +3544,7 @@
         <v>0</v>
       </c>
       <c r="AO17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP17" s="0">
         <v>0</v>
@@ -3589,7 +3589,7 @@
         <v>0</v>
       </c>
       <c r="BD17" s="0">
-        <v>0</v>
+        <v>0.94133223070222916</v>
       </c>
       <c r="BE17" s="0">
         <v>0</v>
@@ -3601,7 +3601,7 @@
         <v>0</v>
       </c>
       <c r="BH17" s="0">
-        <v>0</v>
+        <v>0.90250293315166674</v>
       </c>
       <c r="BI17" s="0">
         <v>0</v>
@@ -3639,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="0">
-        <v>0</v>
+        <v>0.57177197347504438</v>
       </c>
       <c r="E18" s="0">
         <v>0</v>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="0">
-        <v>0</v>
+        <v>0.93939028850615225</v>
       </c>
       <c r="H18" s="0">
         <v>0</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="0">
-        <v>0</v>
+        <v>0.85374129400172316</v>
       </c>
       <c r="N18" s="0">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="Q18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
@@ -3687,10 +3687,10 @@
         <v>0</v>
       </c>
       <c r="T18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18" s="0">
-        <v>0</v>
+        <v>0.79988425663442664</v>
       </c>
       <c r="V18" s="0">
         <v>0</v>
@@ -3774,7 +3774,7 @@
         <v>0</v>
       </c>
       <c r="AW18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX18" s="0">
         <v>0</v>
@@ -3881,10 +3881,10 @@
         <v>0</v>
       </c>
       <c r="P19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" s="0">
         <v>0</v>
@@ -3896,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="U19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" s="0">
         <v>0</v>
@@ -3947,7 +3947,7 @@
         <v>0</v>
       </c>
       <c r="AL19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM19" s="0">
         <v>0</v>
@@ -3983,7 +3983,7 @@
         <v>0</v>
       </c>
       <c r="AX19" s="0">
-        <v>0</v>
+        <v>0.61851860686659554</v>
       </c>
       <c r="AY19" s="0">
         <v>0</v>
@@ -4007,7 +4007,7 @@
         <v>0</v>
       </c>
       <c r="BF19" s="0">
-        <v>0</v>
+        <v>0.86938179828319095</v>
       </c>
       <c r="BG19" s="0">
         <v>0</v>
@@ -4034,7 +4034,7 @@
         <v>0</v>
       </c>
       <c r="BO19" s="0">
-        <v>0</v>
+        <v>0.88269159305700828</v>
       </c>
       <c r="BP19" s="0">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="B20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" s="0">
         <v>0</v>
@@ -4078,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" s="0">
         <v>0</v>
@@ -4093,7 +4093,7 @@
         <v>0</v>
       </c>
       <c r="R20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S20" s="0">
         <v>0</v>
@@ -4105,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="V20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4120,10 +4120,10 @@
         <v>0</v>
       </c>
       <c r="AA20" s="0">
-        <v>0</v>
+        <v>0.94827605383369373</v>
       </c>
       <c r="AB20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC20" s="0">
         <v>0</v>
@@ -4135,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="AF20" s="0">
-        <v>0</v>
+        <v>0.51851043083645698</v>
       </c>
       <c r="AG20" s="0">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>0</v>
       </c>
       <c r="AX20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="0">
         <v>0</v>
@@ -4222,13 +4222,13 @@
         <v>0</v>
       </c>
       <c r="BI20" s="0">
-        <v>0</v>
+        <v>0.52769239759498077</v>
       </c>
       <c r="BJ20" s="0">
         <v>0</v>
       </c>
       <c r="BK20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL20" s="0">
         <v>0</v>
@@ -4240,7 +4240,7 @@
         <v>0</v>
       </c>
       <c r="BO20" s="0">
-        <v>0</v>
+        <v>0.72063045873370579</v>
       </c>
       <c r="BP20" s="0">
         <v>0</v>
@@ -4287,7 +4287,7 @@
         <v>0</v>
       </c>
       <c r="N21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" s="0">
         <v>0</v>
@@ -4299,10 +4299,10 @@
         <v>0</v>
       </c>
       <c r="R21" s="0">
-        <v>0</v>
+        <v>0.52639671441848734</v>
       </c>
       <c r="S21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" s="0">
         <v>0</v>
@@ -4311,10 +4311,10 @@
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>0</v>
+        <v>0.71190555195097127</v>
       </c>
       <c r="W21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4335,7 +4335,7 @@
         <v>0</v>
       </c>
       <c r="AD21" s="0">
-        <v>0</v>
+        <v>0.80806103979724597</v>
       </c>
       <c r="AE21" s="0">
         <v>0</v>
@@ -4380,7 +4380,7 @@
         <v>0</v>
       </c>
       <c r="AS21" s="0">
-        <v>0</v>
+        <v>0.5708869341057512</v>
       </c>
       <c r="AT21" s="0">
         <v>0</v>
@@ -4392,7 +4392,7 @@
         <v>0</v>
       </c>
       <c r="AW21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX21" s="0">
         <v>0</v>
@@ -4428,7 +4428,7 @@
         <v>0</v>
       </c>
       <c r="BI21" s="0">
-        <v>0</v>
+        <v>0.57914681549874725</v>
       </c>
       <c r="BJ21" s="0">
         <v>0</v>
@@ -4490,7 +4490,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="0">
-        <v>0</v>
+        <v>0.56238385848947403</v>
       </c>
       <c r="N22" s="0">
         <v>0</v>
@@ -4511,19 +4511,19 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22" s="0">
-        <v>0</v>
+        <v>0.78758714264860585</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>0</v>
+        <v>0.88535043114292122</v>
       </c>
       <c r="X22" s="0">
-        <v>0</v>
+        <v>0.68769893715605557</v>
       </c>
       <c r="Y22" s="0">
         <v>0</v>
@@ -4535,7 +4535,7 @@
         <v>0</v>
       </c>
       <c r="AB22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC22" s="0">
         <v>0</v>
@@ -4565,7 +4565,7 @@
         <v>0</v>
       </c>
       <c r="AL22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM22" s="0">
         <v>0</v>
@@ -4634,7 +4634,7 @@
         <v>0</v>
       </c>
       <c r="BI22" s="0">
-        <v>0</v>
+        <v>0.90264277447611052</v>
       </c>
       <c r="BJ22" s="0">
         <v>0</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="BM22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="0">
         <v>0</v>
@@ -4705,7 +4705,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="0">
         <v>0</v>
@@ -4720,22 +4720,22 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23" s="0">
-        <v>0</v>
+        <v>0.95002322457079957</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="0">
         <v>0</v>
       </c>
       <c r="Z23" s="0">
-        <v>0</v>
+        <v>0.65268440521854965</v>
       </c>
       <c r="AA23" s="0">
         <v>0</v>
@@ -4795,7 +4795,7 @@
         <v>0</v>
       </c>
       <c r="AT23" s="0">
-        <v>0</v>
+        <v>0.94683279029440093</v>
       </c>
       <c r="AU23" s="0">
         <v>0</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="BK23" s="0">
-        <v>0</v>
+        <v>0.73582731427577941</v>
       </c>
       <c r="BL23" s="0">
         <v>0</v>
@@ -4855,7 +4855,7 @@
         <v>0</v>
       </c>
       <c r="BN23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO23" s="0">
         <v>0</v>
@@ -4902,7 +4902,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="0">
-        <v>0</v>
+        <v>0.88978598926315966</v>
       </c>
       <c r="N24" s="0">
         <v>0</v>
@@ -4929,10 +4929,10 @@
         <v>0</v>
       </c>
       <c r="V24" s="0">
-        <v>0</v>
+        <v>0.73037739070690311</v>
       </c>
       <c r="W24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
@@ -4941,7 +4941,7 @@
         <v>0</v>
       </c>
       <c r="Z24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
@@ -5007,7 +5007,7 @@
         <v>0</v>
       </c>
       <c r="AV24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW24" s="0">
         <v>0</v>
@@ -5061,7 +5061,7 @@
         <v>0</v>
       </c>
       <c r="BN24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO24" s="0">
         <v>0</v>
@@ -5072,13 +5072,13 @@
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B25" s="0">
         <v>0</v>
       </c>
       <c r="C25" s="0">
-        <v>0</v>
+        <v>0.63583089334680354</v>
       </c>
       <c r="D25" s="0">
         <v>0</v>
@@ -5096,7 +5096,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" s="0">
         <v>0</v>
@@ -5105,7 +5105,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="0">
-        <v>0</v>
+        <v>0.58281878711298463</v>
       </c>
       <c r="M25" s="0">
         <v>0</v>
@@ -5147,7 +5147,7 @@
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA25" s="0">
         <v>0</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="AM25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN25" s="0">
         <v>0</v>
@@ -5267,7 +5267,7 @@
         <v>0</v>
       </c>
       <c r="BN25" s="0">
-        <v>0</v>
+        <v>0.67937453422822558</v>
       </c>
       <c r="BO25" s="0">
         <v>0</v>
@@ -5278,7 +5278,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B26" s="0">
         <v>0</v>
@@ -5344,13 +5344,13 @@
         <v>0</v>
       </c>
       <c r="W26" s="0">
-        <v>0</v>
+        <v>0.95354806876194442</v>
       </c>
       <c r="X26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="0">
         <v>0</v>
@@ -5362,7 +5362,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="0">
-        <v>1</v>
+        <v>0.79034906009574946</v>
       </c>
       <c r="AD26" s="0">
         <v>0</v>
@@ -5470,13 +5470,13 @@
         <v>0</v>
       </c>
       <c r="BM26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="0">
         <v>0</v>
       </c>
       <c r="BO26" s="0">
-        <v>0</v>
+        <v>0.52636312505013239</v>
       </c>
       <c r="BP26" s="0">
         <v>0</v>
@@ -5490,13 +5490,13 @@
         <v>0</v>
       </c>
       <c r="C27" s="0">
-        <v>0</v>
+        <v>0.63474991947209292</v>
       </c>
       <c r="D27" s="0">
-        <v>1</v>
+        <v>0.56382890435780753</v>
       </c>
       <c r="E27" s="0">
-        <v>0</v>
+        <v>0.98206569606794747</v>
       </c>
       <c r="F27" s="0">
         <v>0</v>
@@ -5505,7 +5505,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="0">
-        <v>0</v>
+        <v>0.99079801676383794</v>
       </c>
       <c r="I27" s="0">
         <v>0</v>
@@ -5541,7 +5541,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="0">
-        <v>0</v>
+        <v>0.76513835336430813</v>
       </c>
       <c r="U27" s="0">
         <v>0</v>
@@ -5565,10 +5565,10 @@
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>0</v>
+        <v>0.59870721397640714</v>
       </c>
       <c r="AC27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5610,7 +5610,7 @@
         <v>0</v>
       </c>
       <c r="AQ27" s="0">
-        <v>0</v>
+        <v>0.76127168325092631</v>
       </c>
       <c r="AR27" s="0">
         <v>0</v>
@@ -5622,7 +5622,7 @@
         <v>0</v>
       </c>
       <c r="AU27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV27" s="0">
         <v>0</v>
@@ -5667,7 +5667,7 @@
         <v>0</v>
       </c>
       <c r="BJ27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK27" s="0">
         <v>0</v>
@@ -5720,7 +5720,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" s="0">
         <v>0</v>
@@ -5735,7 +5735,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="0">
         <v>0</v>
@@ -5747,13 +5747,13 @@
         <v>0</v>
       </c>
       <c r="T28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U28" s="0">
         <v>0</v>
       </c>
       <c r="V28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W28" s="0">
         <v>0</v>
@@ -5768,7 +5768,7 @@
         <v>0</v>
       </c>
       <c r="AA28" s="0">
-        <v>0</v>
+        <v>0.85284958888532181</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
@@ -5810,7 +5810,7 @@
         <v>0</v>
       </c>
       <c r="AO28" s="0">
-        <v>1</v>
+        <v>0.68390147084585218</v>
       </c>
       <c r="AP28" s="0">
         <v>0</v>
@@ -5840,16 +5840,16 @@
         <v>0</v>
       </c>
       <c r="AY28" s="0">
-        <v>0</v>
+        <v>0.55359536118111574</v>
       </c>
       <c r="AZ28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA28" s="0">
         <v>0</v>
       </c>
       <c r="BB28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC28" s="0">
         <v>0</v>
@@ -5971,10 +5971,10 @@
         <v>0</v>
       </c>
       <c r="Z29" s="0">
-        <v>1</v>
+        <v>0.59376427527978415</v>
       </c>
       <c r="AA29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB29" s="0">
         <v>0</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="AE29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF29" s="0">
         <v>0</v>
@@ -6061,13 +6061,13 @@
         <v>0</v>
       </c>
       <c r="BD29" s="0">
-        <v>0</v>
+        <v>0.99417741078455779</v>
       </c>
       <c r="BE29" s="0">
         <v>0</v>
       </c>
       <c r="BF29" s="0">
-        <v>0</v>
+        <v>0.63847787478756901</v>
       </c>
       <c r="BG29" s="0">
         <v>0</v>
@@ -6082,7 +6082,7 @@
         <v>0</v>
       </c>
       <c r="BK29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL29" s="0">
         <v>0</v>
@@ -6094,7 +6094,7 @@
         <v>0</v>
       </c>
       <c r="BO29" s="0">
-        <v>0</v>
+        <v>0.59672601466091879</v>
       </c>
       <c r="BP29" s="0">
         <v>0</v>
@@ -6147,7 +6147,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="0">
         <v>0</v>
@@ -6162,7 +6162,7 @@
         <v>0</v>
       </c>
       <c r="U30" s="0">
-        <v>0</v>
+        <v>0.89735322424683051</v>
       </c>
       <c r="V30" s="0">
         <v>0</v>
@@ -6192,7 +6192,7 @@
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>0</v>
+        <v>0.98342541977692366</v>
       </c>
       <c r="AF30" s="0">
         <v>0</v>
@@ -6204,7 +6204,7 @@
         <v>0</v>
       </c>
       <c r="AI30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ30" s="0">
         <v>0</v>
@@ -6273,7 +6273,7 @@
         <v>0</v>
       </c>
       <c r="BF30" s="0">
-        <v>0</v>
+        <v>0.55973331201012644</v>
       </c>
       <c r="BG30" s="0">
         <v>0</v>
@@ -6326,13 +6326,13 @@
         <v>0</v>
       </c>
       <c r="G31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" s="0">
         <v>0</v>
       </c>
       <c r="I31" s="0">
-        <v>0</v>
+        <v>0.93377463020275497</v>
       </c>
       <c r="J31" s="0">
         <v>0</v>
@@ -6350,7 +6350,7 @@
         <v>0</v>
       </c>
       <c r="O31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31" s="0">
         <v>0</v>
@@ -6392,19 +6392,19 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD31" s="0">
-        <v>0</v>
+        <v>0.8148849410999075</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>0</v>
+        <v>0.73076308806403456</v>
       </c>
       <c r="AG31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH31" s="0">
         <v>0</v>
@@ -6425,19 +6425,19 @@
         <v>0</v>
       </c>
       <c r="AN31" s="0">
-        <v>0</v>
+        <v>0.79520073956512971</v>
       </c>
       <c r="AO31" s="0">
         <v>0</v>
       </c>
       <c r="AP31" s="0">
-        <v>0</v>
+        <v>0.94847474043333069</v>
       </c>
       <c r="AQ31" s="0">
         <v>0</v>
       </c>
       <c r="AR31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS31" s="0">
         <v>0</v>
@@ -6467,7 +6467,7 @@
         <v>0</v>
       </c>
       <c r="BB31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC31" s="0">
         <v>0</v>
@@ -6547,7 +6547,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="0">
-        <v>0</v>
+        <v>0.51274243966165023</v>
       </c>
       <c r="M32" s="0">
         <v>0</v>
@@ -6571,7 +6571,7 @@
         <v>0</v>
       </c>
       <c r="T32" s="0">
-        <v>0</v>
+        <v>0.63681178827866436</v>
       </c>
       <c r="U32" s="0">
         <v>0</v>
@@ -6604,7 +6604,7 @@
         <v>0</v>
       </c>
       <c r="AE32" s="0">
-        <v>0</v>
+        <v>0.93851088690433437</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
@@ -6643,13 +6643,13 @@
         <v>0</v>
       </c>
       <c r="AR32" s="0">
-        <v>1</v>
+        <v>0.90398502543581749</v>
       </c>
       <c r="AS32" s="0">
         <v>0</v>
       </c>
       <c r="AT32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU32" s="0">
         <v>0</v>
@@ -6744,7 +6744,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="0">
-        <v>0</v>
+        <v>0.63406925665564295</v>
       </c>
       <c r="J33" s="0">
         <v>0</v>
@@ -6753,7 +6753,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M33" s="0">
         <v>0</v>
@@ -6762,7 +6762,7 @@
         <v>0</v>
       </c>
       <c r="O33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33" s="0">
         <v>0</v>
@@ -6810,7 +6810,7 @@
         <v>0</v>
       </c>
       <c r="AE33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF33" s="0">
         <v>0</v>
@@ -6819,10 +6819,10 @@
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI33" s="0">
-        <v>1</v>
+        <v>0.93099109109474409</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -6876,7 +6876,7 @@
         <v>0</v>
       </c>
       <c r="BA33" s="0">
-        <v>0</v>
+        <v>0.86473109788015223</v>
       </c>
       <c r="BB33" s="0">
         <v>0</v>
@@ -6962,7 +6962,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="0">
-        <v>0</v>
+        <v>0.69597876362001498</v>
       </c>
       <c r="N34" s="0">
         <v>0</v>
@@ -6971,7 +6971,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="0">
-        <v>0</v>
+        <v>0.84905811272138232</v>
       </c>
       <c r="Q34" s="0">
         <v>0</v>
@@ -7022,7 +7022,7 @@
         <v>0</v>
       </c>
       <c r="AG34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
@@ -7040,7 +7040,7 @@
         <v>0</v>
       </c>
       <c r="AM34" s="0">
-        <v>0</v>
+        <v>0.63247478001399793</v>
       </c>
       <c r="AN34" s="0">
         <v>0</v>
@@ -7061,7 +7061,7 @@
         <v>0</v>
       </c>
       <c r="AT34" s="0">
-        <v>0</v>
+        <v>0.82908404156231019</v>
       </c>
       <c r="AU34" s="0">
         <v>0</v>
@@ -7088,7 +7088,7 @@
         <v>0</v>
       </c>
       <c r="BC34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD34" s="0">
         <v>0</v>
@@ -7147,7 +7147,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35" s="0">
         <v>0</v>
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="N35" s="0">
-        <v>0</v>
+        <v>0.64685705345582645</v>
       </c>
       <c r="O35" s="0">
         <v>0</v>
@@ -7219,7 +7219,7 @@
         <v>0</v>
       </c>
       <c r="AD35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE35" s="0">
         <v>0</v>
@@ -7228,7 +7228,7 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>1</v>
+        <v>0.93512639783096874</v>
       </c>
       <c r="AH35" s="0">
         <v>0</v>
@@ -7237,10 +7237,10 @@
         <v>0</v>
       </c>
       <c r="AJ35" s="0">
-        <v>0</v>
+        <v>0.89930495113074482</v>
       </c>
       <c r="AK35" s="0">
-        <v>0</v>
+        <v>0.82421796846616124</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7261,13 +7261,13 @@
         <v>0</v>
       </c>
       <c r="AR35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS35" s="0">
         <v>0</v>
       </c>
       <c r="AT35" s="0">
-        <v>0</v>
+        <v>0.60153189490931924</v>
       </c>
       <c r="AU35" s="0">
         <v>0</v>
@@ -7440,7 +7440,7 @@
         <v>0</v>
       </c>
       <c r="AI36" s="0">
-        <v>0</v>
+        <v>0.71096952784148926</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
@@ -7449,10 +7449,10 @@
         <v>0</v>
       </c>
       <c r="AL36" s="0">
-        <v>1</v>
+        <v>0.69609695686198281</v>
       </c>
       <c r="AM36" s="0">
-        <v>0</v>
+        <v>0.59631637682634819</v>
       </c>
       <c r="AN36" s="0">
         <v>0</v>
@@ -7461,7 +7461,7 @@
         <v>0</v>
       </c>
       <c r="AP36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ36" s="0">
         <v>0</v>
@@ -7527,7 +7527,7 @@
         <v>0</v>
       </c>
       <c r="BL36" s="0">
-        <v>0</v>
+        <v>0.78387988707644674</v>
       </c>
       <c r="BM36" s="0">
         <v>0</v>
@@ -7547,7 +7547,7 @@
         <v>0</v>
       </c>
       <c r="B37" s="0">
-        <v>0</v>
+        <v>0.60542810443054806</v>
       </c>
       <c r="C37" s="0">
         <v>0</v>
@@ -7562,7 +7562,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" s="0">
         <v>0</v>
@@ -7646,7 +7646,7 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>0</v>
+        <v>0.92521020644400243</v>
       </c>
       <c r="AJ37" s="0">
         <v>0</v>
@@ -7655,7 +7655,7 @@
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>0</v>
+        <v>0.68083773531089209</v>
       </c>
       <c r="AM37" s="0">
         <v>0</v>
@@ -7664,7 +7664,7 @@
         <v>0</v>
       </c>
       <c r="AO37" s="0">
-        <v>0</v>
+        <v>0.64163502770043057</v>
       </c>
       <c r="AP37" s="0">
         <v>0</v>
@@ -7694,7 +7694,7 @@
         <v>0</v>
       </c>
       <c r="AY37" s="0">
-        <v>0</v>
+        <v>0.55397086998553546</v>
       </c>
       <c r="AZ37" s="0">
         <v>0</v>
@@ -7703,7 +7703,7 @@
         <v>0</v>
       </c>
       <c r="BB37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC37" s="0">
         <v>0</v>
@@ -7759,7 +7759,7 @@
         <v>0</v>
       </c>
       <c r="D38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" s="0">
         <v>0</v>
@@ -7795,7 +7795,7 @@
         <v>0</v>
       </c>
       <c r="P38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38" s="0">
         <v>0</v>
@@ -7804,7 +7804,7 @@
         <v>0</v>
       </c>
       <c r="S38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T38" s="0">
         <v>0</v>
@@ -7813,7 +7813,7 @@
         <v>0</v>
       </c>
       <c r="V38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W38" s="0">
         <v>0</v>
@@ -7855,16 +7855,16 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>1</v>
+        <v>0.61113413117717474</v>
       </c>
       <c r="AK38" s="0">
-        <v>0</v>
+        <v>0.95595528442281386</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>0</v>
+        <v>0.53957641777461274</v>
       </c>
       <c r="AN38" s="0">
         <v>0</v>
@@ -7912,7 +7912,7 @@
         <v>0</v>
       </c>
       <c r="BC38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD38" s="0">
         <v>0</v>
@@ -7962,13 +7962,13 @@
         <v>0</v>
       </c>
       <c r="C39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" s="0">
         <v>0</v>
       </c>
       <c r="E39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" s="0">
         <v>0</v>
@@ -8028,7 +8028,7 @@
         <v>0</v>
       </c>
       <c r="Y39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z39" s="0">
         <v>0</v>
@@ -8055,19 +8055,19 @@
         <v>0</v>
       </c>
       <c r="AH39" s="0">
-        <v>0</v>
+        <v>0.90367782859291435</v>
       </c>
       <c r="AI39" s="0">
         <v>0</v>
       </c>
       <c r="AJ39" s="0">
-        <v>0</v>
+        <v>0.6227499458987884</v>
       </c>
       <c r="AK39" s="0">
         <v>0</v>
       </c>
       <c r="AL39" s="0">
-        <v>0</v>
+        <v>0.68153274621581283</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
@@ -8183,7 +8183,7 @@
         <v>0</v>
       </c>
       <c r="H40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" s="0">
         <v>0</v>
@@ -8195,7 +8195,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="0">
-        <v>0</v>
+        <v>0.66511663436851298</v>
       </c>
       <c r="M40" s="0">
         <v>0</v>
@@ -8252,7 +8252,7 @@
         <v>0</v>
       </c>
       <c r="AE40" s="0">
-        <v>0</v>
+        <v>0.69469273012309962</v>
       </c>
       <c r="AF40" s="0">
         <v>0</v>
@@ -8324,7 +8324,7 @@
         <v>0</v>
       </c>
       <c r="BC40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD40" s="0">
         <v>0</v>
@@ -8333,7 +8333,7 @@
         <v>0</v>
       </c>
       <c r="BF40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG40" s="0">
         <v>0</v>
@@ -8342,7 +8342,7 @@
         <v>0</v>
       </c>
       <c r="BI40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ40" s="0">
         <v>0</v>
@@ -8357,7 +8357,7 @@
         <v>0</v>
       </c>
       <c r="BN40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO40" s="0">
         <v>0</v>
@@ -8392,7 +8392,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="0">
-        <v>0</v>
+        <v>0.75577886138754835</v>
       </c>
       <c r="J41" s="0">
         <v>0</v>
@@ -8410,13 +8410,13 @@
         <v>0</v>
       </c>
       <c r="O41" s="0">
-        <v>0</v>
+        <v>0.92602854960673064</v>
       </c>
       <c r="P41" s="0">
         <v>0</v>
       </c>
       <c r="Q41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R41" s="0">
         <v>0</v>
@@ -8449,7 +8449,7 @@
         <v>0</v>
       </c>
       <c r="AB41" s="0">
-        <v>1</v>
+        <v>0.56318293491072358</v>
       </c>
       <c r="AC41" s="0">
         <v>0</v>
@@ -8476,7 +8476,7 @@
         <v>0</v>
       </c>
       <c r="AK41" s="0">
-        <v>0</v>
+        <v>0.93482621032537438</v>
       </c>
       <c r="AL41" s="0">
         <v>0</v>
@@ -8589,13 +8589,13 @@
         <v>0</v>
       </c>
       <c r="F42" s="0">
-        <v>0</v>
+        <v>0.93504637356407261</v>
       </c>
       <c r="G42" s="0">
         <v>0</v>
       </c>
       <c r="H42" s="0">
-        <v>0</v>
+        <v>0.74244861907274662</v>
       </c>
       <c r="I42" s="0">
         <v>0</v>
@@ -8664,7 +8664,7 @@
         <v>0</v>
       </c>
       <c r="AE42" s="0">
-        <v>0</v>
+        <v>0.85432805501148423</v>
       </c>
       <c r="AF42" s="0">
         <v>0</v>
@@ -8679,7 +8679,7 @@
         <v>0</v>
       </c>
       <c r="AJ42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK42" s="0">
         <v>0</v>
@@ -8703,16 +8703,16 @@
         <v>0</v>
       </c>
       <c r="AR42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT42" s="0">
         <v>0</v>
       </c>
       <c r="AU42" s="0">
-        <v>0</v>
+        <v>0.7323333287898417</v>
       </c>
       <c r="AV42" s="0">
         <v>0</v>
@@ -8721,7 +8721,7 @@
         <v>0</v>
       </c>
       <c r="AX42" s="0">
-        <v>0</v>
+        <v>0.54154842101952694</v>
       </c>
       <c r="AY42" s="0">
         <v>0</v>
@@ -8739,7 +8739,7 @@
         <v>0</v>
       </c>
       <c r="BD42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE42" s="0">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>0</v>
       </c>
       <c r="BN42" s="0">
-        <v>0</v>
+        <v>0.67989051822041002</v>
       </c>
       <c r="BO42" s="0">
         <v>0</v>
@@ -8798,7 +8798,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" s="0">
         <v>0</v>
@@ -8810,7 +8810,7 @@
         <v>0</v>
       </c>
       <c r="K43" s="0">
-        <v>0</v>
+        <v>0.82175026593008416</v>
       </c>
       <c r="L43" s="0">
         <v>0</v>
@@ -8858,7 +8858,7 @@
         <v>0</v>
       </c>
       <c r="AA43" s="0">
-        <v>0</v>
+        <v>0.82965778910465582</v>
       </c>
       <c r="AB43" s="0">
         <v>0</v>
@@ -8909,10 +8909,10 @@
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>0</v>
+        <v>0.84515735830832139</v>
       </c>
       <c r="AS43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="AZ43" s="0">
-        <v>0</v>
+        <v>0.7711888288520774</v>
       </c>
       <c r="BA43" s="0">
         <v>0</v>
@@ -8963,7 +8963,7 @@
         <v>0</v>
       </c>
       <c r="BJ43" s="0">
-        <v>0</v>
+        <v>0.80400321486404414</v>
       </c>
       <c r="BK43" s="0">
         <v>0</v>
@@ -8972,7 +8972,7 @@
         <v>0</v>
       </c>
       <c r="BM43" s="0">
-        <v>0</v>
+        <v>0.64065150216380107</v>
       </c>
       <c r="BN43" s="0">
         <v>0</v>
@@ -9022,7 +9022,7 @@
         <v>0</v>
       </c>
       <c r="M44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N44" s="0">
         <v>0</v>
@@ -9076,10 +9076,10 @@
         <v>0</v>
       </c>
       <c r="AE44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF44" s="0">
-        <v>1</v>
+        <v>0.97041584285706839</v>
       </c>
       <c r="AG44" s="0">
         <v>0</v>
@@ -9088,7 +9088,7 @@
         <v>0</v>
       </c>
       <c r="AI44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ44" s="0">
         <v>0</v>
@@ -9109,16 +9109,16 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ44" s="0">
-        <v>0</v>
+        <v>0.65940112112115457</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT44" s="0">
         <v>0</v>
@@ -9142,7 +9142,7 @@
         <v>0</v>
       </c>
       <c r="BA44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB44" s="0">
         <v>0</v>
@@ -9175,7 +9175,7 @@
         <v>0</v>
       </c>
       <c r="BL44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM44" s="0">
         <v>0</v>
@@ -9184,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="BO44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP44" s="0">
         <v>0</v>
@@ -9195,7 +9195,7 @@
         <v>0</v>
       </c>
       <c r="B45" s="0">
-        <v>0</v>
+        <v>0.81779974890632201</v>
       </c>
       <c r="C45" s="0">
         <v>0</v>
@@ -9222,7 +9222,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="0">
-        <v>0</v>
+        <v>0.84867351054303186</v>
       </c>
       <c r="L45" s="0">
         <v>0</v>
@@ -9252,7 +9252,7 @@
         <v>0</v>
       </c>
       <c r="U45" s="0">
-        <v>0</v>
+        <v>0.86426847102747717</v>
       </c>
       <c r="V45" s="0">
         <v>0</v>
@@ -9315,13 +9315,13 @@
         <v>0</v>
       </c>
       <c r="AP45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
@@ -9330,7 +9330,7 @@
         <v>0</v>
       </c>
       <c r="AU45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9464,7 +9464,7 @@
         <v>0</v>
       </c>
       <c r="W46" s="0">
-        <v>0</v>
+        <v>0.9138114595129132</v>
       </c>
       <c r="X46" s="0">
         <v>0</v>
@@ -9491,16 +9491,16 @@
         <v>0</v>
       </c>
       <c r="AF46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG46" s="0">
         <v>0</v>
       </c>
       <c r="AH46" s="0">
-        <v>0</v>
+        <v>0.84248493313462802</v>
       </c>
       <c r="AI46" s="0">
-        <v>0</v>
+        <v>0.9721754361411894</v>
       </c>
       <c r="AJ46" s="0">
         <v>0</v>
@@ -9536,10 +9536,10 @@
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9607,10 +9607,10 @@
         <v>0</v>
       </c>
       <c r="B47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47" s="0">
         <v>0</v>
@@ -9649,7 +9649,7 @@
         <v>0</v>
       </c>
       <c r="P47" s="0">
-        <v>0</v>
+        <v>0.84952161440462493</v>
       </c>
       <c r="Q47" s="0">
         <v>0</v>
@@ -9682,7 +9682,7 @@
         <v>0</v>
       </c>
       <c r="AA47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB47" s="0">
         <v>0</v>
@@ -9727,7 +9727,7 @@
         <v>0</v>
       </c>
       <c r="AP47" s="0">
-        <v>0</v>
+        <v>0.57293033272781058</v>
       </c>
       <c r="AQ47" s="0">
         <v>0</v>
@@ -9736,10 +9736,10 @@
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
@@ -9793,7 +9793,7 @@
         <v>0</v>
       </c>
       <c r="BL47" s="0">
-        <v>0</v>
+        <v>0.57798806065929509</v>
       </c>
       <c r="BM47" s="0">
         <v>0</v>
@@ -9828,7 +9828,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" s="0">
         <v>0</v>
@@ -9843,7 +9843,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="0">
-        <v>0</v>
+        <v>0.83967797284742418</v>
       </c>
       <c r="M48" s="0">
         <v>0</v>
@@ -9879,7 +9879,7 @@
         <v>0</v>
       </c>
       <c r="X48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y48" s="0">
         <v>0</v>
@@ -9945,7 +9945,7 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU48" s="0">
         <v>0</v>
@@ -9954,7 +9954,7 @@
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>0</v>
+        <v>0.63025874371372848</v>
       </c>
       <c r="AX48" s="0">
         <v>0</v>
@@ -10016,7 +10016,7 @@
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>0</v>
+        <v>0.6759582412006081</v>
       </c>
       <c r="B49" s="0">
         <v>0</v>
@@ -10067,7 +10067,7 @@
         <v>0</v>
       </c>
       <c r="R49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S49" s="0">
         <v>0</v>
@@ -10076,7 +10076,7 @@
         <v>0</v>
       </c>
       <c r="U49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V49" s="0">
         <v>0</v>
@@ -10157,7 +10157,7 @@
         <v>0</v>
       </c>
       <c r="AV49" s="0">
-        <v>0</v>
+        <v>0.69692563973706512</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
@@ -10166,7 +10166,7 @@
         <v>0</v>
       </c>
       <c r="AY49" s="0">
-        <v>0</v>
+        <v>0.98602939259373812</v>
       </c>
       <c r="AZ49" s="0">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="BM49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN49" s="0">
         <v>0</v>
@@ -10228,7 +10228,7 @@
         <v>0</v>
       </c>
       <c r="C50" s="0">
-        <v>0</v>
+        <v>0.9126217709345581</v>
       </c>
       <c r="D50" s="0">
         <v>0</v>
@@ -10246,13 +10246,13 @@
         <v>0</v>
       </c>
       <c r="I50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" s="0">
         <v>0</v>
       </c>
       <c r="K50" s="0">
-        <v>0</v>
+        <v>0.71228308607711632</v>
       </c>
       <c r="L50" s="0">
         <v>0</v>
@@ -10276,10 +10276,10 @@
         <v>0</v>
       </c>
       <c r="S50" s="0">
-        <v>0</v>
+        <v>0.80826682555525875</v>
       </c>
       <c r="T50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U50" s="0">
         <v>0</v>
@@ -10345,7 +10345,7 @@
         <v>0</v>
       </c>
       <c r="AP50" s="0">
-        <v>0</v>
+        <v>0.96771476716851557</v>
       </c>
       <c r="AQ50" s="0">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="AY50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ50" s="0">
         <v>0</v>
@@ -10387,7 +10387,7 @@
         <v>0</v>
       </c>
       <c r="BD50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE50" s="0">
         <v>0</v>
@@ -10464,7 +10464,7 @@
         <v>0</v>
       </c>
       <c r="M51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N51" s="0">
         <v>0</v>
@@ -10509,7 +10509,7 @@
         <v>0</v>
       </c>
       <c r="AB51" s="0">
-        <v>0</v>
+        <v>0.53235793668444864</v>
       </c>
       <c r="AC51" s="0">
         <v>0</v>
@@ -10536,7 +10536,7 @@
         <v>0</v>
       </c>
       <c r="AK51" s="0">
-        <v>0</v>
+        <v>0.83808997383320938</v>
       </c>
       <c r="AL51" s="0">
         <v>0</v>
@@ -10572,19 +10572,19 @@
         <v>0</v>
       </c>
       <c r="AW51" s="0">
-        <v>0</v>
+        <v>0.59854587551923322</v>
       </c>
       <c r="AX51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>0</v>
+        <v>0.77551873539298044</v>
       </c>
       <c r="BA51" s="0">
-        <v>0</v>
+        <v>0.89015475180454695</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
@@ -10593,7 +10593,7 @@
         <v>0</v>
       </c>
       <c r="BD51" s="0">
-        <v>0</v>
+        <v>0.68174817825292644</v>
       </c>
       <c r="BE51" s="0">
         <v>0</v>
@@ -10611,7 +10611,7 @@
         <v>0</v>
       </c>
       <c r="BJ51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK51" s="0">
         <v>0</v>
@@ -10679,7 +10679,7 @@
         <v>0</v>
       </c>
       <c r="P52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52" s="0">
         <v>0</v>
@@ -10715,7 +10715,7 @@
         <v>0</v>
       </c>
       <c r="AB52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC52" s="0">
         <v>0</v>
@@ -10760,7 +10760,7 @@
         <v>0</v>
       </c>
       <c r="AQ52" s="0">
-        <v>0</v>
+        <v>0.5932303843190414</v>
       </c>
       <c r="AR52" s="0">
         <v>0</v>
@@ -10784,7 +10784,7 @@
         <v>0</v>
       </c>
       <c r="AY52" s="0">
-        <v>0</v>
+        <v>0.67372889648186196</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
@@ -10835,7 +10835,7 @@
         <v>0</v>
       </c>
       <c r="BP52" s="0">
-        <v>1</v>
+        <v>0.61412615287226457</v>
       </c>
     </row>
     <row r="53">
@@ -10852,10 +10852,10 @@
         <v>0</v>
       </c>
       <c r="E53" s="0">
-        <v>1</v>
+        <v>0.68848822567416224</v>
       </c>
       <c r="F53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53" s="0">
         <v>0</v>
@@ -10870,7 +10870,7 @@
         <v>0</v>
       </c>
       <c r="K53" s="0">
-        <v>0</v>
+        <v>0.9017996958458796</v>
       </c>
       <c r="L53" s="0">
         <v>0</v>
@@ -10936,7 +10936,7 @@
         <v>0</v>
       </c>
       <c r="AG53" s="0">
-        <v>0</v>
+        <v>0.91752327024113645</v>
       </c>
       <c r="AH53" s="0">
         <v>0</v>
@@ -10969,7 +10969,7 @@
         <v>0</v>
       </c>
       <c r="AR53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS53" s="0">
         <v>0</v>
@@ -10990,7 +10990,7 @@
         <v>0</v>
       </c>
       <c r="AY53" s="0">
-        <v>0</v>
+        <v>0.69949404699504214</v>
       </c>
       <c r="AZ53" s="0">
         <v>0</v>
@@ -11011,7 +11011,7 @@
         <v>0</v>
       </c>
       <c r="BF53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG53" s="0">
         <v>0</v>
@@ -11038,7 +11038,7 @@
         <v>0</v>
       </c>
       <c r="BO53" s="0">
-        <v>0</v>
+        <v>0.53404018897223537</v>
       </c>
       <c r="BP53" s="0">
         <v>0</v>
@@ -11046,13 +11046,13 @@
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>0</v>
+        <v>0.613735526658579</v>
       </c>
       <c r="B54" s="0">
         <v>0</v>
       </c>
       <c r="C54" s="0">
-        <v>0</v>
+        <v>0.60096268347368997</v>
       </c>
       <c r="D54" s="0">
         <v>0</v>
@@ -11091,7 +11091,7 @@
         <v>0</v>
       </c>
       <c r="P54" s="0">
-        <v>0</v>
+        <v>0.76898866745847738</v>
       </c>
       <c r="Q54" s="0">
         <v>0</v>
@@ -11127,7 +11127,7 @@
         <v>0</v>
       </c>
       <c r="AB54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC54" s="0">
         <v>0</v>
@@ -11136,7 +11136,7 @@
         <v>0</v>
       </c>
       <c r="AE54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF54" s="0">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="AK54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL54" s="0">
         <v>0</v>
@@ -11211,7 +11211,7 @@
         <v>0</v>
       </c>
       <c r="BD54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE54" s="0">
         <v>0</v>
@@ -11351,7 +11351,7 @@
         <v>0</v>
       </c>
       <c r="AH55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI55" s="0">
         <v>0</v>
@@ -11363,13 +11363,13 @@
         <v>0</v>
       </c>
       <c r="AL55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM55" s="0">
         <v>0</v>
       </c>
       <c r="AN55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO55" s="0">
         <v>0</v>
@@ -11432,16 +11432,16 @@
         <v>0</v>
       </c>
       <c r="BI55" s="0">
-        <v>0</v>
+        <v>0.82125914621751073</v>
       </c>
       <c r="BJ55" s="0">
         <v>0</v>
       </c>
       <c r="BK55" s="0">
-        <v>0</v>
+        <v>0.60631569803994556</v>
       </c>
       <c r="BL55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM55" s="0">
         <v>0</v>
@@ -11479,7 +11479,7 @@
         <v>0</v>
       </c>
       <c r="H56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" s="0">
         <v>0</v>
@@ -11497,16 +11497,16 @@
         <v>0</v>
       </c>
       <c r="N56" s="0">
-        <v>1</v>
+        <v>0.53032586904261503</v>
       </c>
       <c r="O56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P56" s="0">
         <v>0</v>
       </c>
       <c r="Q56" s="0">
-        <v>0</v>
+        <v>0.83817592228923365</v>
       </c>
       <c r="R56" s="0">
         <v>0</v>
@@ -11542,7 +11542,7 @@
         <v>0</v>
       </c>
       <c r="AC56" s="0">
-        <v>0</v>
+        <v>0.91465531777311626</v>
       </c>
       <c r="AD56" s="0">
         <v>0</v>
@@ -11581,7 +11581,7 @@
         <v>0</v>
       </c>
       <c r="AP56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ56" s="0">
         <v>0</v>
@@ -11605,10 +11605,10 @@
         <v>0</v>
       </c>
       <c r="AX56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY56" s="0">
-        <v>0</v>
+        <v>0.55239323663048667</v>
       </c>
       <c r="AZ56" s="0">
         <v>0</v>
@@ -11617,7 +11617,7 @@
         <v>0</v>
       </c>
       <c r="BB56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC56" s="0">
         <v>0</v>
@@ -11629,10 +11629,10 @@
         <v>0</v>
       </c>
       <c r="BF56" s="0">
-        <v>0</v>
+        <v>0.66129536881574325</v>
       </c>
       <c r="BG56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH56" s="0">
         <v>0</v>
@@ -11644,7 +11644,7 @@
         <v>0</v>
       </c>
       <c r="BK56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL56" s="0">
         <v>0</v>
@@ -11676,7 +11676,7 @@
         <v>0</v>
       </c>
       <c r="E57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" s="0">
         <v>0</v>
@@ -11691,7 +11691,7 @@
         <v>0</v>
       </c>
       <c r="J57" s="0">
-        <v>1</v>
+        <v>0.83600180773863941</v>
       </c>
       <c r="K57" s="0">
         <v>0</v>
@@ -11706,7 +11706,7 @@
         <v>0</v>
       </c>
       <c r="O57" s="0">
-        <v>0</v>
+        <v>0.75265914331660633</v>
       </c>
       <c r="P57" s="0">
         <v>0</v>
@@ -11835,7 +11835,7 @@
         <v>0</v>
       </c>
       <c r="BF57" s="0">
-        <v>0</v>
+        <v>0.91820669686115242</v>
       </c>
       <c r="BG57" s="0">
         <v>0</v>
@@ -11856,16 +11856,16 @@
         <v>0</v>
       </c>
       <c r="BM57" s="0">
-        <v>0</v>
+        <v>0.54699328675351944</v>
       </c>
       <c r="BN57" s="0">
         <v>0</v>
       </c>
       <c r="BO57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -11924,7 +11924,7 @@
         <v>0</v>
       </c>
       <c r="S58" s="0">
-        <v>0</v>
+        <v>0.68799019014022578</v>
       </c>
       <c r="T58" s="0">
         <v>0</v>
@@ -11954,10 +11954,10 @@
         <v>0</v>
       </c>
       <c r="AC58" s="0">
-        <v>0</v>
+        <v>0.97109735972312072</v>
       </c>
       <c r="AD58" s="0">
-        <v>0</v>
+        <v>0.75084428501549416</v>
       </c>
       <c r="AE58" s="0">
         <v>0</v>
@@ -11987,7 +11987,7 @@
         <v>0</v>
       </c>
       <c r="AN58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO58" s="0">
         <v>0</v>
@@ -12026,7 +12026,7 @@
         <v>0</v>
       </c>
       <c r="BA58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB58" s="0">
         <v>0</v>
@@ -12035,10 +12035,10 @@
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>0</v>
+        <v>0.82385910023990894</v>
       </c>
       <c r="BE58" s="0">
-        <v>0</v>
+        <v>0.81643906051908943</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
@@ -12047,7 +12047,7 @@
         <v>0</v>
       </c>
       <c r="BH58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI58" s="0">
         <v>0</v>
@@ -12056,7 +12056,7 @@
         <v>0</v>
       </c>
       <c r="BK58" s="0">
-        <v>0</v>
+        <v>0.63219084501569878</v>
       </c>
       <c r="BL58" s="0">
         <v>0</v>
@@ -12079,7 +12079,7 @@
         <v>0</v>
       </c>
       <c r="B59" s="0">
-        <v>0</v>
+        <v>0.56116522806002833</v>
       </c>
       <c r="C59" s="0">
         <v>0</v>
@@ -12088,13 +12088,13 @@
         <v>0</v>
       </c>
       <c r="E59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59" s="0">
         <v>0</v>
       </c>
       <c r="G59" s="0">
-        <v>0</v>
+        <v>0.83934135952786848</v>
       </c>
       <c r="H59" s="0">
         <v>0</v>
@@ -12112,7 +12112,7 @@
         <v>0</v>
       </c>
       <c r="M59" s="0">
-        <v>0</v>
+        <v>0.96792955025418748</v>
       </c>
       <c r="N59" s="0">
         <v>0</v>
@@ -12241,7 +12241,7 @@
         <v>0</v>
       </c>
       <c r="BD59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE59" s="0">
         <v>0</v>
@@ -12253,10 +12253,10 @@
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI59" s="0">
-        <v>0</v>
+        <v>0.69404543668559293</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
@@ -12330,7 +12330,7 @@
         <v>0</v>
       </c>
       <c r="Q60" s="0">
-        <v>0</v>
+        <v>0.5356662939343988</v>
       </c>
       <c r="R60" s="0">
         <v>0</v>
@@ -12453,10 +12453,10 @@
         <v>0</v>
       </c>
       <c r="BF60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
@@ -12465,7 +12465,7 @@
         <v>0</v>
       </c>
       <c r="BJ60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
@@ -12480,7 +12480,7 @@
         <v>0</v>
       </c>
       <c r="BO60" s="0">
-        <v>1</v>
+        <v>0.61822738411318734</v>
       </c>
       <c r="BP60" s="0">
         <v>0</v>
@@ -12488,7 +12488,7 @@
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>0</v>
+        <v>0.67904799847658692</v>
       </c>
       <c r="B61" s="0">
         <v>0</v>
@@ -12545,13 +12545,13 @@
         <v>0</v>
       </c>
       <c r="T61" s="0">
-        <v>0</v>
+        <v>0.5190774402993692</v>
       </c>
       <c r="U61" s="0">
-        <v>0</v>
+        <v>0.61453340484913122</v>
       </c>
       <c r="V61" s="0">
-        <v>0</v>
+        <v>0.92308014836763674</v>
       </c>
       <c r="W61" s="0">
         <v>0</v>
@@ -12605,7 +12605,7 @@
         <v>0</v>
       </c>
       <c r="AN61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO61" s="0">
         <v>0</v>
@@ -12650,7 +12650,7 @@
         <v>0</v>
       </c>
       <c r="BC61" s="0">
-        <v>0</v>
+        <v>0.54239217236607828</v>
       </c>
       <c r="BD61" s="0">
         <v>0</v>
@@ -12662,7 +12662,7 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>0</v>
+        <v>0.88904772460884285</v>
       </c>
       <c r="BH61" s="0">
         <v>0</v>
@@ -12671,7 +12671,7 @@
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>0</v>
+        <v>0.79220074209631042</v>
       </c>
       <c r="BK61" s="0">
         <v>0</v>
@@ -12686,7 +12686,7 @@
         <v>0</v>
       </c>
       <c r="BO61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP61" s="0">
         <v>0</v>
@@ -12694,7 +12694,7 @@
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B62" s="0">
         <v>0</v>
@@ -12736,7 +12736,7 @@
         <v>0</v>
       </c>
       <c r="O62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P62" s="0">
         <v>0</v>
@@ -12772,7 +12772,7 @@
         <v>0</v>
       </c>
       <c r="AA62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB62" s="0">
         <v>0</v>
@@ -12820,7 +12820,7 @@
         <v>0</v>
       </c>
       <c r="AQ62" s="0">
-        <v>0</v>
+        <v>0.62288523367402615</v>
       </c>
       <c r="AR62" s="0">
         <v>0</v>
@@ -12844,7 +12844,7 @@
         <v>0</v>
       </c>
       <c r="AY62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ62" s="0">
         <v>0</v>
@@ -12871,16 +12871,16 @@
         <v>0</v>
       </c>
       <c r="BH62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI62" s="0">
-        <v>0</v>
+        <v>0.88743736724617173</v>
       </c>
       <c r="BJ62" s="0">
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>0</v>
+        <v>0.89927843738899738</v>
       </c>
       <c r="BL62" s="0">
         <v>0</v>
@@ -12906,7 +12906,7 @@
         <v>0</v>
       </c>
       <c r="C63" s="0">
-        <v>0</v>
+        <v>0.77718134286748342</v>
       </c>
       <c r="D63" s="0">
         <v>0</v>
@@ -12939,7 +12939,7 @@
         <v>0</v>
       </c>
       <c r="N63" s="0">
-        <v>0</v>
+        <v>0.78204011182485789</v>
       </c>
       <c r="O63" s="0">
         <v>0</v>
@@ -12957,7 +12957,7 @@
         <v>0</v>
       </c>
       <c r="T63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U63" s="0">
         <v>0</v>
@@ -12966,7 +12966,7 @@
         <v>0</v>
       </c>
       <c r="W63" s="0">
-        <v>0</v>
+        <v>0.78497327705881237</v>
       </c>
       <c r="X63" s="0">
         <v>0</v>
@@ -12984,7 +12984,7 @@
         <v>0</v>
       </c>
       <c r="AC63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD63" s="0">
         <v>0</v>
@@ -13062,16 +13062,16 @@
         <v>0</v>
       </c>
       <c r="BC63" s="0">
-        <v>0</v>
+        <v>0.8111245283993983</v>
       </c>
       <c r="BD63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE63" s="0">
         <v>0</v>
       </c>
       <c r="BF63" s="0">
-        <v>0</v>
+        <v>0.85383546309846869</v>
       </c>
       <c r="BG63" s="0">
         <v>0</v>
@@ -13083,7 +13083,7 @@
         <v>0</v>
       </c>
       <c r="BJ63" s="0">
-        <v>0</v>
+        <v>0.61285594222998185</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
@@ -13092,7 +13092,7 @@
         <v>0</v>
       </c>
       <c r="BM63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN63" s="0">
         <v>0</v>
@@ -13109,7 +13109,7 @@
         <v>0</v>
       </c>
       <c r="B64" s="0">
-        <v>0</v>
+        <v>0.76006952572508113</v>
       </c>
       <c r="C64" s="0">
         <v>0</v>
@@ -13127,13 +13127,13 @@
         <v>0</v>
       </c>
       <c r="H64" s="0">
-        <v>0</v>
+        <v>0.74557811265807983</v>
       </c>
       <c r="I64" s="0">
         <v>0</v>
       </c>
       <c r="J64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64" s="0">
         <v>0</v>
@@ -13211,7 +13211,7 @@
         <v>0</v>
       </c>
       <c r="AJ64" s="0">
-        <v>0</v>
+        <v>0.60004162036399245</v>
       </c>
       <c r="AK64" s="0">
         <v>0</v>
@@ -13235,7 +13235,7 @@
         <v>0</v>
       </c>
       <c r="AR64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS64" s="0">
         <v>0</v>
@@ -13244,7 +13244,7 @@
         <v>0</v>
       </c>
       <c r="AU64" s="0">
-        <v>0</v>
+        <v>0.80142222521930828</v>
       </c>
       <c r="AV64" s="0">
         <v>0</v>
@@ -13268,7 +13268,7 @@
         <v>0</v>
       </c>
       <c r="BC64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD64" s="0">
         <v>0</v>
@@ -13375,7 +13375,7 @@
         <v>0</v>
       </c>
       <c r="V65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W65" s="0">
         <v>0</v>
@@ -13387,7 +13387,7 @@
         <v>0</v>
       </c>
       <c r="Z65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA65" s="0">
         <v>0</v>
@@ -13438,7 +13438,7 @@
         <v>0</v>
       </c>
       <c r="AQ65" s="0">
-        <v>0</v>
+        <v>0.7353119599092599</v>
       </c>
       <c r="AR65" s="0">
         <v>0</v>
@@ -13456,7 +13456,7 @@
         <v>0</v>
       </c>
       <c r="AW65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX65" s="0">
         <v>0</v>
@@ -13480,7 +13480,7 @@
         <v>0</v>
       </c>
       <c r="BE65" s="0">
-        <v>0</v>
+        <v>0.78640530335439873</v>
       </c>
       <c r="BF65" s="0">
         <v>0</v>
@@ -13498,7 +13498,7 @@
         <v>0</v>
       </c>
       <c r="BK65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL65" s="0">
         <v>0</v>
@@ -13507,7 +13507,7 @@
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>0</v>
+        <v>0.78810765208627964</v>
       </c>
       <c r="BO65" s="0">
         <v>0</v>
@@ -13524,7 +13524,7 @@
         <v>0</v>
       </c>
       <c r="C66" s="0">
-        <v>0</v>
+        <v>0.61446819235273087</v>
       </c>
       <c r="D66" s="0">
         <v>0</v>
@@ -13584,13 +13584,13 @@
         <v>0</v>
       </c>
       <c r="W66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y66" s="0">
-        <v>0</v>
+        <v>0.88601589755283894</v>
       </c>
       <c r="Z66" s="0">
         <v>0</v>
@@ -13635,13 +13635,13 @@
         <v>0</v>
       </c>
       <c r="AN66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO66" s="0">
         <v>0</v>
       </c>
       <c r="AP66" s="0">
-        <v>0</v>
+        <v>0.67472446563247435</v>
       </c>
       <c r="AQ66" s="0">
         <v>0</v>
@@ -13710,7 +13710,7 @@
         <v>0</v>
       </c>
       <c r="BM66" s="0">
-        <v>0</v>
+        <v>0.62888981332384231</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
@@ -13719,7 +13719,7 @@
         <v>0</v>
       </c>
       <c r="BP66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -13778,10 +13778,10 @@
         <v>0</v>
       </c>
       <c r="S67" s="0">
-        <v>0</v>
+        <v>0.59645007178622722</v>
       </c>
       <c r="T67" s="0">
-        <v>0</v>
+        <v>0.57586395135496904</v>
       </c>
       <c r="U67" s="0">
         <v>0</v>
@@ -13799,7 +13799,7 @@
         <v>0</v>
       </c>
       <c r="Z67" s="0">
-        <v>0</v>
+        <v>0.76279126365547445</v>
       </c>
       <c r="AA67" s="0">
         <v>0</v>
@@ -13808,7 +13808,7 @@
         <v>0</v>
       </c>
       <c r="AC67" s="0">
-        <v>0</v>
+        <v>0.99804711834209059</v>
       </c>
       <c r="AD67" s="0">
         <v>0</v>
@@ -13853,7 +13853,7 @@
         <v>0</v>
       </c>
       <c r="AR67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS67" s="0">
         <v>0</v>
@@ -13880,7 +13880,7 @@
         <v>0</v>
       </c>
       <c r="BA67" s="0">
-        <v>0</v>
+        <v>0.75178612163005853</v>
       </c>
       <c r="BB67" s="0">
         <v>0</v>
@@ -13892,7 +13892,7 @@
         <v>0</v>
       </c>
       <c r="BE67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF67" s="0">
         <v>0</v>
@@ -13901,10 +13901,10 @@
         <v>0</v>
       </c>
       <c r="BH67" s="0">
-        <v>1</v>
+        <v>0.52073429562560225</v>
       </c>
       <c r="BI67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ67" s="0">
         <v>0</v>
@@ -13925,12 +13925,12 @@
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>0</v>
+        <v>0.77692949726630967</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>0</v>
+        <v>0.82485008018293737</v>
       </c>
       <c r="B68" s="0">
         <v>0</v>
@@ -14083,7 +14083,7 @@
         <v>0</v>
       </c>
       <c r="AZ68" s="0">
-        <v>1</v>
+        <v>0.50827692275953007</v>
       </c>
       <c r="BA68" s="0">
         <v>0</v>
@@ -14098,7 +14098,7 @@
         <v>0</v>
       </c>
       <c r="BE68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF68" s="0">
         <v>0</v>
@@ -14125,10 +14125,10 @@
         <v>0</v>
       </c>
       <c r="BN68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO68" s="0">
-        <v>0</v>
+        <v>0.53400365613997636</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject26.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject26.xlsx
@@ -272,7 +272,7 @@
         <v>0</v>
       </c>
       <c r="AW1" s="0">
-        <v>0.6420919103590903</v>
+        <v>0.6759582412006081</v>
       </c>
       <c r="AX1" s="0">
         <v>0</v>
@@ -287,7 +287,7 @@
         <v>0</v>
       </c>
       <c r="BB1" s="0">
-        <v>0.61278728278640082</v>
+        <v>0.613735526658579</v>
       </c>
       <c r="BC1" s="0">
         <v>0</v>
@@ -329,7 +329,7 @@
         <v>0</v>
       </c>
       <c r="BP1" s="0">
-        <v>0.50859671214957236</v>
+        <v>0.82485008018293737</v>
       </c>
     </row>
     <row r="2">
@@ -466,7 +466,7 @@
         <v>0</v>
       </c>
       <c r="AS2" s="0">
-        <v>0.68197283347382431</v>
+        <v>0.81779974890632201</v>
       </c>
       <c r="AT2" s="0">
         <v>0</v>
@@ -687,7 +687,7 @@
         <v>0</v>
       </c>
       <c r="AX3" s="0">
-        <v>0.67893814328889768</v>
+        <v>0.9126217709345581</v>
       </c>
       <c r="AY3" s="0">
         <v>0</v>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="BB3" s="0">
-        <v>0.58804587552326049</v>
+        <v>0.60096268347368997</v>
       </c>
       <c r="BC3" s="0">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="BK3" s="0">
-        <v>0.5752196747711309</v>
+        <v>0.77718134286748342</v>
       </c>
       <c r="BL3" s="0">
         <v>0</v>
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>0.63537838367930322</v>
+        <v>0.64243878227429363</v>
       </c>
       <c r="C4" s="0">
         <v>0</v>
@@ -1030,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="AA5" s="0">
-        <v>0.78496263303642033</v>
+        <v>0.98206569606794747</v>
       </c>
       <c r="AB5" s="0">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="BA5" s="0">
-        <v>0.61493076884793663</v>
+        <v>0.68848822567416224</v>
       </c>
       <c r="BB5" s="0">
         <v>0</v>
@@ -1179,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>0.61661260248735084</v>
+        <v>0.69247908964704641</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="0">
-        <v>0.61966163156690657</v>
+        <v>0.99434153047568397</v>
       </c>
       <c r="Q6" s="0">
         <v>0</v>
@@ -1281,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="AP6" s="0">
-        <v>0.80915034199157043</v>
+        <v>0.93504637356407261</v>
       </c>
       <c r="AQ6" s="0">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.78265243085276437</v>
+        <v>0.82614197959063351</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="R7" s="0">
-        <v>0.77676947319056056</v>
+        <v>0.93939028850615225</v>
       </c>
       <c r="S7" s="0">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="BG7" s="0">
-        <v>0.62107229935074892</v>
+        <v>0.83934135952786848</v>
       </c>
       <c r="BH7" s="0">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="Q8" s="0">
-        <v>0.60307648233710298</v>
+        <v>0.93732748956306389</v>
       </c>
       <c r="R8" s="0">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="AA8" s="0">
-        <v>0.89701277270397783</v>
+        <v>0.99079801676383794</v>
       </c>
       <c r="AB8" s="0">
         <v>0</v>
@@ -1896,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="AO9" s="0">
-        <v>0.58017636755472402</v>
+        <v>0.75577886138754835</v>
       </c>
       <c r="AP9" s="0">
         <v>0</v>
@@ -2012,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>0.83048781503696067</v>
+        <v>0.93459226183390798</v>
       </c>
       <c r="L10" s="0">
         <v>0</v>
@@ -2021,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="0">
-        <v>0.53190224253608331</v>
+        <v>0.93256332555256061</v>
       </c>
       <c r="O10" s="0">
         <v>0</v>
@@ -2150,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="BE10" s="0">
-        <v>0.83250885266459695</v>
+        <v>0.83600180773863941</v>
       </c>
       <c r="BF10" s="0">
         <v>0</v>
@@ -2314,13 +2314,13 @@
         <v>0</v>
       </c>
       <c r="AQ11" s="0">
-        <v>0.625891958838662</v>
+        <v>0.82175026593008416</v>
       </c>
       <c r="AR11" s="0">
         <v>0</v>
       </c>
       <c r="AS11" s="0">
-        <v>0.71843609649376905</v>
+        <v>0.84867351054303186</v>
       </c>
       <c r="AT11" s="0">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="AV12" s="0">
-        <v>0.72662239230744918</v>
+        <v>0.83967797284742418</v>
       </c>
       <c r="AW12" s="0">
         <v>0</v>
@@ -2669,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="X13" s="0">
-        <v>0.76597302698463654</v>
+        <v>0.88978598926315966</v>
       </c>
       <c r="Y13" s="0">
         <v>0</v>
@@ -2699,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="AH13" s="0">
-        <v>0.515274783610006</v>
+        <v>0.69597876362001498</v>
       </c>
       <c r="AI13" s="0">
         <v>0</v>
@@ -2774,7 +2774,7 @@
         <v>0</v>
       </c>
       <c r="BG13" s="0">
-        <v>0.79160632050094937</v>
+        <v>0.96792955025418748</v>
       </c>
       <c r="BH13" s="0">
         <v>0</v>
@@ -3021,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="0">
-        <v>0.6181499168686645</v>
+        <v>0.69921353163424682</v>
       </c>
       <c r="E15" s="0">
         <v>0</v>
@@ -3132,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="AO15" s="0">
-        <v>0.87841503401033705</v>
+        <v>0.92602854960673064</v>
       </c>
       <c r="AP15" s="0">
         <v>0</v>
@@ -3180,7 +3180,7 @@
         <v>0</v>
       </c>
       <c r="BE15" s="0">
-        <v>0.72585186337741658</v>
+        <v>0.75265914331660633</v>
       </c>
       <c r="BF15" s="0">
         <v>0</v>
@@ -3251,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="0">
-        <v>0.57066265561865737</v>
+        <v>0.83988054207341967</v>
       </c>
       <c r="M16" s="0">
         <v>0</v>
@@ -3260,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="O16" s="0">
-        <v>0.69116569760842828</v>
+        <v>0.96272025594045529</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
@@ -3356,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="AU16" s="0">
-        <v>0.731255128966386</v>
+        <v>0.84952161440462493</v>
       </c>
       <c r="AV16" s="0">
         <v>0</v>
@@ -3377,7 +3377,7 @@
         <v>0</v>
       </c>
       <c r="BB16" s="0">
-        <v>0.57729591727055318</v>
+        <v>0.76898866745847738</v>
       </c>
       <c r="BC16" s="0">
         <v>0</v>
@@ -3639,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="0">
-        <v>0.57177197347504438</v>
+        <v>0.99124050818327125</v>
       </c>
       <c r="E18" s="0">
         <v>0</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="0">
-        <v>0.85374129400172316</v>
+        <v>0.86940033184227816</v>
       </c>
       <c r="N18" s="0">
         <v>0</v>
@@ -3983,7 +3983,7 @@
         <v>0</v>
       </c>
       <c r="AX19" s="0">
-        <v>0.61851860686659554</v>
+        <v>0.80826682555525875</v>
       </c>
       <c r="AY19" s="0">
         <v>0</v>
@@ -4135,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="AF20" s="0">
-        <v>0.51851043083645698</v>
+        <v>0.63681178827866436</v>
       </c>
       <c r="AG20" s="0">
         <v>0</v>
@@ -4299,7 +4299,7 @@
         <v>0</v>
       </c>
       <c r="R21" s="0">
-        <v>0.52639671441848734</v>
+        <v>0.79988425663442664</v>
       </c>
       <c r="S21" s="0">
         <v>0</v>
@@ -4311,7 +4311,7 @@
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>0.71190555195097127</v>
+        <v>0.78758714264860585</v>
       </c>
       <c r="W21" s="0">
         <v>0</v>
@@ -4335,7 +4335,7 @@
         <v>0</v>
       </c>
       <c r="AD21" s="0">
-        <v>0.80806103979724597</v>
+        <v>0.89735322424683051</v>
       </c>
       <c r="AE21" s="0">
         <v>0</v>
@@ -4380,7 +4380,7 @@
         <v>0</v>
       </c>
       <c r="AS21" s="0">
-        <v>0.5708869341057512</v>
+        <v>0.86426847102747717</v>
       </c>
       <c r="AT21" s="0">
         <v>0</v>
@@ -4428,7 +4428,7 @@
         <v>0</v>
       </c>
       <c r="BI21" s="0">
-        <v>0.57914681549874725</v>
+        <v>0.61453340484913122</v>
       </c>
       <c r="BJ21" s="0">
         <v>0</v>
@@ -4490,7 +4490,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="0">
-        <v>0.56238385848947403</v>
+        <v>0.934885263985614</v>
       </c>
       <c r="N22" s="0">
         <v>0</v>
@@ -4520,10 +4520,10 @@
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>0.88535043114292122</v>
+        <v>0.95002322457079957</v>
       </c>
       <c r="X22" s="0">
-        <v>0.68769893715605557</v>
+        <v>0.73037739070690311</v>
       </c>
       <c r="Y22" s="0">
         <v>0</v>
@@ -4634,7 +4634,7 @@
         <v>0</v>
       </c>
       <c r="BI22" s="0">
-        <v>0.90264277447611052</v>
+        <v>0.92308014836763674</v>
       </c>
       <c r="BJ22" s="0">
         <v>0</v>
@@ -4735,7 +4735,7 @@
         <v>0</v>
       </c>
       <c r="Z23" s="0">
-        <v>0.65268440521854965</v>
+        <v>0.95354806876194442</v>
       </c>
       <c r="AA23" s="0">
         <v>0</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="BK23" s="0">
-        <v>0.73582731427577941</v>
+        <v>0.78497327705881237</v>
       </c>
       <c r="BL23" s="0">
         <v>0</v>
@@ -5078,7 +5078,7 @@
         <v>0</v>
       </c>
       <c r="C25" s="0">
-        <v>0.63583089334680354</v>
+        <v>0.98827814049834695</v>
       </c>
       <c r="D25" s="0">
         <v>0</v>
@@ -5105,7 +5105,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="0">
-        <v>0.58281878711298463</v>
+        <v>0.74701662664733992</v>
       </c>
       <c r="M25" s="0">
         <v>0</v>
@@ -5267,7 +5267,7 @@
         <v>0</v>
       </c>
       <c r="BN25" s="0">
-        <v>0.67937453422822558</v>
+        <v>0.88601589755283894</v>
       </c>
       <c r="BO25" s="0">
         <v>0</v>
@@ -5476,7 +5476,7 @@
         <v>0</v>
       </c>
       <c r="BO26" s="0">
-        <v>0.52636312505013239</v>
+        <v>0.76279126365547445</v>
       </c>
       <c r="BP26" s="0">
         <v>0</v>
@@ -5490,10 +5490,10 @@
         <v>0</v>
       </c>
       <c r="C27" s="0">
-        <v>0.63474991947209292</v>
+        <v>0.95676311399250191</v>
       </c>
       <c r="D27" s="0">
-        <v>0.56382890435780753</v>
+        <v>0.9563617453344726</v>
       </c>
       <c r="E27" s="0">
         <v>0.98206569606794747</v>
@@ -5541,7 +5541,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="0">
-        <v>0.76513835336430813</v>
+        <v>0.94827605383369373</v>
       </c>
       <c r="U27" s="0">
         <v>0</v>
@@ -5565,7 +5565,7 @@
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>0.59870721397640714</v>
+        <v>0.85284958888532181</v>
       </c>
       <c r="AC27" s="0">
         <v>0</v>
@@ -5610,7 +5610,7 @@
         <v>0</v>
       </c>
       <c r="AQ27" s="0">
-        <v>0.76127168325092631</v>
+        <v>0.82965778910465582</v>
       </c>
       <c r="AR27" s="0">
         <v>0</v>
@@ -5971,7 +5971,7 @@
         <v>0</v>
       </c>
       <c r="Z29" s="0">
-        <v>0.59376427527978415</v>
+        <v>0.79034906009574946</v>
       </c>
       <c r="AA29" s="0">
         <v>0</v>
@@ -6067,7 +6067,7 @@
         <v>0</v>
       </c>
       <c r="BF29" s="0">
-        <v>0.63847787478756901</v>
+        <v>0.97109735972312072</v>
       </c>
       <c r="BG29" s="0">
         <v>0</v>
@@ -6094,7 +6094,7 @@
         <v>0</v>
       </c>
       <c r="BO29" s="0">
-        <v>0.59672601466091879</v>
+        <v>0.99804711834209059</v>
       </c>
       <c r="BP29" s="0">
         <v>0</v>
@@ -6273,7 +6273,7 @@
         <v>0</v>
       </c>
       <c r="BF30" s="0">
-        <v>0.55973331201012644</v>
+        <v>0.75084428501549416</v>
       </c>
       <c r="BG30" s="0">
         <v>0</v>
@@ -6332,7 +6332,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="0">
-        <v>0.93377463020275497</v>
+        <v>0.99641414074189782</v>
       </c>
       <c r="J31" s="0">
         <v>0</v>
@@ -6395,13 +6395,13 @@
         <v>0</v>
       </c>
       <c r="AD31" s="0">
-        <v>0.8148849410999075</v>
+        <v>0.98342541977692366</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>0.73076308806403456</v>
+        <v>0.93851088690433437</v>
       </c>
       <c r="AG31" s="0">
         <v>0</v>
@@ -6547,7 +6547,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="0">
-        <v>0.51274243966165023</v>
+        <v>0.79409793231113834</v>
       </c>
       <c r="M32" s="0">
         <v>0</v>
@@ -6643,7 +6643,7 @@
         <v>0</v>
       </c>
       <c r="AR32" s="0">
-        <v>0.90398502543581749</v>
+        <v>0.97041584285706839</v>
       </c>
       <c r="AS32" s="0">
         <v>0</v>
@@ -6744,7 +6744,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="0">
-        <v>0.63406925665564295</v>
+        <v>0.77535356548840073</v>
       </c>
       <c r="J33" s="0">
         <v>0</v>
@@ -6822,7 +6822,7 @@
         <v>0</v>
       </c>
       <c r="AI33" s="0">
-        <v>0.93099109109474409</v>
+        <v>0.93512639783096874</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -6876,7 +6876,7 @@
         <v>0</v>
       </c>
       <c r="BA33" s="0">
-        <v>0.86473109788015223</v>
+        <v>0.91752327024113645</v>
       </c>
       <c r="BB33" s="0">
         <v>0</v>
@@ -6971,7 +6971,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="0">
-        <v>0.84905811272138232</v>
+        <v>0.88847447232631716</v>
       </c>
       <c r="Q34" s="0">
         <v>0</v>
@@ -7040,7 +7040,7 @@
         <v>0</v>
       </c>
       <c r="AM34" s="0">
-        <v>0.63247478001399793</v>
+        <v>0.90367782859291435</v>
       </c>
       <c r="AN34" s="0">
         <v>0</v>
@@ -7061,7 +7061,7 @@
         <v>0</v>
       </c>
       <c r="AT34" s="0">
-        <v>0.82908404156231019</v>
+        <v>0.84248493313462802</v>
       </c>
       <c r="AU34" s="0">
         <v>0</v>
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="N35" s="0">
-        <v>0.64685705345582645</v>
+        <v>0.81439913200292602</v>
       </c>
       <c r="O35" s="0">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>0.89930495113074482</v>
       </c>
       <c r="AK35" s="0">
-        <v>0.82421796846616124</v>
+        <v>0.92521020644400243</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7267,7 +7267,7 @@
         <v>0</v>
       </c>
       <c r="AT35" s="0">
-        <v>0.60153189490931924</v>
+        <v>0.9721754361411894</v>
       </c>
       <c r="AU35" s="0">
         <v>0</v>
@@ -7440,7 +7440,7 @@
         <v>0</v>
       </c>
       <c r="AI36" s="0">
-        <v>0.71096952784148926</v>
+        <v>0.89930495113074482</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
@@ -7452,7 +7452,7 @@
         <v>0.69609695686198281</v>
       </c>
       <c r="AM36" s="0">
-        <v>0.59631637682634819</v>
+        <v>0.6227499458987884</v>
       </c>
       <c r="AN36" s="0">
         <v>0</v>
@@ -7547,7 +7547,7 @@
         <v>0</v>
       </c>
       <c r="B37" s="0">
-        <v>0.60542810443054806</v>
+        <v>0.72753945484648819</v>
       </c>
       <c r="C37" s="0">
         <v>0</v>
@@ -7655,7 +7655,7 @@
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>0.68083773531089209</v>
+        <v>0.95595528442281386</v>
       </c>
       <c r="AM37" s="0">
         <v>0</v>
@@ -7664,7 +7664,7 @@
         <v>0</v>
       </c>
       <c r="AO37" s="0">
-        <v>0.64163502770043057</v>
+        <v>0.93482621032537438</v>
       </c>
       <c r="AP37" s="0">
         <v>0</v>
@@ -7694,7 +7694,7 @@
         <v>0</v>
       </c>
       <c r="AY37" s="0">
-        <v>0.55397086998553546</v>
+        <v>0.83808997383320938</v>
       </c>
       <c r="AZ37" s="0">
         <v>0</v>
@@ -7855,7 +7855,7 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>0.61113413117717474</v>
+        <v>0.69609695686198281</v>
       </c>
       <c r="AK38" s="0">
         <v>0.95595528442281386</v>
@@ -7864,7 +7864,7 @@
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>0.53957641777461274</v>
+        <v>0.68153274621581283</v>
       </c>
       <c r="AN38" s="0">
         <v>0</v>
@@ -8195,7 +8195,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="0">
-        <v>0.66511663436851298</v>
+        <v>0.75072792625412654</v>
       </c>
       <c r="M40" s="0">
         <v>0</v>
@@ -8252,7 +8252,7 @@
         <v>0</v>
       </c>
       <c r="AE40" s="0">
-        <v>0.69469273012309962</v>
+        <v>0.79520073956512971</v>
       </c>
       <c r="AF40" s="0">
         <v>0</v>
@@ -8449,7 +8449,7 @@
         <v>0</v>
       </c>
       <c r="AB41" s="0">
-        <v>0.56318293491072358</v>
+        <v>0.68390147084585218</v>
       </c>
       <c r="AC41" s="0">
         <v>0</v>
@@ -8595,7 +8595,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="0">
-        <v>0.74244861907274662</v>
+        <v>0.93864992630987332</v>
       </c>
       <c r="I42" s="0">
         <v>0</v>
@@ -8664,7 +8664,7 @@
         <v>0</v>
       </c>
       <c r="AE42" s="0">
-        <v>0.85432805501148423</v>
+        <v>0.94847474043333069</v>
       </c>
       <c r="AF42" s="0">
         <v>0</v>
@@ -8721,7 +8721,7 @@
         <v>0</v>
       </c>
       <c r="AX42" s="0">
-        <v>0.54154842101952694</v>
+        <v>0.96771476716851557</v>
       </c>
       <c r="AY42" s="0">
         <v>0</v>
@@ -8972,7 +8972,7 @@
         <v>0</v>
       </c>
       <c r="BM43" s="0">
-        <v>0.64065150216380107</v>
+        <v>0.7353119599092599</v>
       </c>
       <c r="BN43" s="0">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>0</v>
       </c>
       <c r="AQ44" s="0">
-        <v>0.65940112112115457</v>
+        <v>0.84515735830832139</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
@@ -9464,7 +9464,7 @@
         <v>0</v>
       </c>
       <c r="W46" s="0">
-        <v>0.9138114595129132</v>
+        <v>0.94683279029440093</v>
       </c>
       <c r="X46" s="0">
         <v>0</v>
@@ -9727,7 +9727,7 @@
         <v>0</v>
       </c>
       <c r="AP47" s="0">
-        <v>0.57293033272781058</v>
+        <v>0.7323333287898417</v>
       </c>
       <c r="AQ47" s="0">
         <v>0</v>
@@ -9793,7 +9793,7 @@
         <v>0</v>
       </c>
       <c r="BL47" s="0">
-        <v>0.57798806065929509</v>
+        <v>0.80142222521930828</v>
       </c>
       <c r="BM47" s="0">
         <v>0</v>
@@ -9954,7 +9954,7 @@
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>0.63025874371372848</v>
+        <v>0.69692563973706512</v>
       </c>
       <c r="AX48" s="0">
         <v>0</v>
@@ -10252,7 +10252,7 @@
         <v>0</v>
       </c>
       <c r="K50" s="0">
-        <v>0.71228308607711632</v>
+        <v>0.8580495581362283</v>
       </c>
       <c r="L50" s="0">
         <v>0</v>
@@ -10509,7 +10509,7 @@
         <v>0</v>
       </c>
       <c r="AB51" s="0">
-        <v>0.53235793668444864</v>
+        <v>0.55359536118111574</v>
       </c>
       <c r="AC51" s="0">
         <v>0</v>
@@ -10572,7 +10572,7 @@
         <v>0</v>
       </c>
       <c r="AW51" s="0">
-        <v>0.59854587551923322</v>
+        <v>0.98602939259373812</v>
       </c>
       <c r="AX51" s="0">
         <v>0</v>
@@ -10760,7 +10760,7 @@
         <v>0</v>
       </c>
       <c r="AQ52" s="0">
-        <v>0.5932303843190414</v>
+        <v>0.7711888288520774</v>
       </c>
       <c r="AR52" s="0">
         <v>0</v>
@@ -10784,7 +10784,7 @@
         <v>0</v>
       </c>
       <c r="AY52" s="0">
-        <v>0.67372889648186196</v>
+        <v>0.77551873539298044</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
@@ -10870,7 +10870,7 @@
         <v>0</v>
       </c>
       <c r="K53" s="0">
-        <v>0.9017996958458796</v>
+        <v>0.9237682868317284</v>
       </c>
       <c r="L53" s="0">
         <v>0</v>
@@ -10990,7 +10990,7 @@
         <v>0</v>
       </c>
       <c r="AY53" s="0">
-        <v>0.69949404699504214</v>
+        <v>0.89015475180454695</v>
       </c>
       <c r="AZ53" s="0">
         <v>0</v>
@@ -11038,7 +11038,7 @@
         <v>0</v>
       </c>
       <c r="BO53" s="0">
-        <v>0.53404018897223537</v>
+        <v>0.75178612163005853</v>
       </c>
       <c r="BP53" s="0">
         <v>0</v>
@@ -11438,7 +11438,7 @@
         <v>0</v>
       </c>
       <c r="BK55" s="0">
-        <v>0.60631569803994556</v>
+        <v>0.8111245283993983</v>
       </c>
       <c r="BL55" s="0">
         <v>0</v>
@@ -11497,7 +11497,7 @@
         <v>0</v>
       </c>
       <c r="N56" s="0">
-        <v>0.53032586904261503</v>
+        <v>0.67722449560728593</v>
       </c>
       <c r="O56" s="0">
         <v>0</v>
@@ -11506,7 +11506,7 @@
         <v>0</v>
       </c>
       <c r="Q56" s="0">
-        <v>0.83817592228923365</v>
+        <v>0.94133223070222916</v>
       </c>
       <c r="R56" s="0">
         <v>0</v>
@@ -11542,7 +11542,7 @@
         <v>0</v>
       </c>
       <c r="AC56" s="0">
-        <v>0.91465531777311626</v>
+        <v>0.99417741078455779</v>
       </c>
       <c r="AD56" s="0">
         <v>0</v>
@@ -11608,7 +11608,7 @@
         <v>0</v>
       </c>
       <c r="AY56" s="0">
-        <v>0.55239323663048667</v>
+        <v>0.68174817825292644</v>
       </c>
       <c r="AZ56" s="0">
         <v>0</v>
@@ -11629,7 +11629,7 @@
         <v>0</v>
       </c>
       <c r="BF56" s="0">
-        <v>0.66129536881574325</v>
+        <v>0.82385910023990894</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
@@ -11856,7 +11856,7 @@
         <v>0</v>
       </c>
       <c r="BM57" s="0">
-        <v>0.54699328675351944</v>
+        <v>0.78640530335439873</v>
       </c>
       <c r="BN57" s="0">
         <v>0</v>
@@ -11924,7 +11924,7 @@
         <v>0</v>
       </c>
       <c r="S58" s="0">
-        <v>0.68799019014022578</v>
+        <v>0.86938179828319095</v>
       </c>
       <c r="T58" s="0">
         <v>0</v>
@@ -12038,7 +12038,7 @@
         <v>0.82385910023990894</v>
       </c>
       <c r="BE58" s="0">
-        <v>0.81643906051908943</v>
+        <v>0.91820669686115242</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
@@ -12056,7 +12056,7 @@
         <v>0</v>
       </c>
       <c r="BK58" s="0">
-        <v>0.63219084501569878</v>
+        <v>0.85383546309846869</v>
       </c>
       <c r="BL58" s="0">
         <v>0</v>
@@ -12079,7 +12079,7 @@
         <v>0</v>
       </c>
       <c r="B59" s="0">
-        <v>0.56116522806002833</v>
+        <v>0.75704380933583248</v>
       </c>
       <c r="C59" s="0">
         <v>0</v>
@@ -12256,7 +12256,7 @@
         <v>0</v>
       </c>
       <c r="BI59" s="0">
-        <v>0.69404543668559293</v>
+        <v>0.88904772460884285</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
@@ -12330,7 +12330,7 @@
         <v>0</v>
       </c>
       <c r="Q60" s="0">
-        <v>0.5356662939343988</v>
+        <v>0.90250293315166674</v>
       </c>
       <c r="R60" s="0">
         <v>0</v>
@@ -12488,7 +12488,7 @@
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>0.67904799847658692</v>
+        <v>0.76883785900686352</v>
       </c>
       <c r="B61" s="0">
         <v>0</v>
@@ -12545,7 +12545,7 @@
         <v>0</v>
       </c>
       <c r="T61" s="0">
-        <v>0.5190774402993692</v>
+        <v>0.52769239759498077</v>
       </c>
       <c r="U61" s="0">
         <v>0.61453340484913122</v>
@@ -12650,7 +12650,7 @@
         <v>0</v>
       </c>
       <c r="BC61" s="0">
-        <v>0.54239217236607828</v>
+        <v>0.82125914621751073</v>
       </c>
       <c r="BD61" s="0">
         <v>0</v>
@@ -12671,7 +12671,7 @@
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>0.79220074209631042</v>
+        <v>0.88743736724617173</v>
       </c>
       <c r="BK61" s="0">
         <v>0</v>
@@ -12820,7 +12820,7 @@
         <v>0</v>
       </c>
       <c r="AQ62" s="0">
-        <v>0.62288523367402615</v>
+        <v>0.80400321486404414</v>
       </c>
       <c r="AR62" s="0">
         <v>0</v>
@@ -12939,7 +12939,7 @@
         <v>0</v>
       </c>
       <c r="N63" s="0">
-        <v>0.78204011182485789</v>
+        <v>0.89502085826048572</v>
       </c>
       <c r="O63" s="0">
         <v>0</v>
@@ -13083,7 +13083,7 @@
         <v>0</v>
       </c>
       <c r="BJ63" s="0">
-        <v>0.61285594222998185</v>
+        <v>0.89927843738899738</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
@@ -13109,7 +13109,7 @@
         <v>0</v>
       </c>
       <c r="B64" s="0">
-        <v>0.76006952572508113</v>
+        <v>0.90629266200181757</v>
       </c>
       <c r="C64" s="0">
         <v>0</v>
@@ -13127,7 +13127,7 @@
         <v>0</v>
       </c>
       <c r="H64" s="0">
-        <v>0.74557811265807983</v>
+        <v>0.98894100599759271</v>
       </c>
       <c r="I64" s="0">
         <v>0</v>
@@ -13211,7 +13211,7 @@
         <v>0</v>
       </c>
       <c r="AJ64" s="0">
-        <v>0.60004162036399245</v>
+        <v>0.78387988707644674</v>
       </c>
       <c r="AK64" s="0">
         <v>0</v>
@@ -13524,7 +13524,7 @@
         <v>0</v>
       </c>
       <c r="C66" s="0">
-        <v>0.61446819235273087</v>
+        <v>0.70841508452175717</v>
       </c>
       <c r="D66" s="0">
         <v>0</v>
@@ -13641,7 +13641,7 @@
         <v>0</v>
       </c>
       <c r="AP66" s="0">
-        <v>0.67472446563247435</v>
+        <v>0.67989051822041002</v>
       </c>
       <c r="AQ66" s="0">
         <v>0</v>
@@ -13710,7 +13710,7 @@
         <v>0</v>
       </c>
       <c r="BM66" s="0">
-        <v>0.62888981332384231</v>
+        <v>0.78810765208627964</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
@@ -13778,10 +13778,10 @@
         <v>0</v>
       </c>
       <c r="S67" s="0">
-        <v>0.59645007178622722</v>
+        <v>0.88269159305700828</v>
       </c>
       <c r="T67" s="0">
-        <v>0.57586395135496904</v>
+        <v>0.72063045873370579</v>
       </c>
       <c r="U67" s="0">
         <v>0</v>
@@ -13901,7 +13901,7 @@
         <v>0</v>
       </c>
       <c r="BH67" s="0">
-        <v>0.52073429562560225</v>
+        <v>0.61822738411318734</v>
       </c>
       <c r="BI67" s="0">
         <v>0</v>
@@ -14083,7 +14083,7 @@
         <v>0</v>
       </c>
       <c r="AZ68" s="0">
-        <v>0.50827692275953007</v>
+        <v>0.61412615287226457</v>
       </c>
       <c r="BA68" s="0">
         <v>0</v>
@@ -14128,7 +14128,7 @@
         <v>0</v>
       </c>
       <c r="BO68" s="0">
-        <v>0.53400365613997636</v>
+        <v>0.77692949726630967</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>
